--- a/experimentação/rosenbrock/Testes_max_fun_calls/experimento_rosen_100_dimensoes_pcdeepso.xlsx
+++ b/experimentação/rosenbrock/Testes_max_fun_calls/experimento_rosen_100_dimensoes_pcdeepso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a10f9ab6fab0dff6/Documentos/UFRJ/TCC/powell-cdeepso/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a10f9ab6fab0dff6/Documentos/UFRJ/TCC/powell-cdeepso/experimentação/rosenbrock/Testes_max_fun_calls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_4BA68BC4D264D6057D96F7973C358AD3F29CC6A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{308A92C1-135A-425C-BF99-7C796E8ACD82}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_4BA68BC43FCC1F5524D65CB734358AD3F29CC7B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CF3A811-A488-468D-A47B-5D74C1F6718D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,94 +32,94 @@
     <t>function_evals</t>
   </si>
   <si>
-    <t>1.003156629877177, 0.9988036324889302, 1.000730300428054, 0.9990143825229842, 1.0005197086224848, 1.0008104799638984, 0.9981651052464321, 1.0074863043839501, 1.000159287020836, 0.9925851299403378, 0.998708898621558, 1.0031158685367967, 1.000090385583771, 0.999652312501043, 0.9999720693411898, 1.0045290008967664, 1.0097789238382469, 1.0021005050404523, 0.9940890391550564, 0.999006026622791, 1.004334748470345, 0.9967335821107597, 0.9985816741398145, 1.0033181320995919, 0.9981788263381928, 0.9993088521437593, 0.9971147497463679, 0.9929641814932497, 1.0021354248427237, 1.0125557770009197, 1.0040908523141265, 0.9934685762508418, 0.9705470223787266, 0.9696518714504305, 0.9534550505987852, 0.8967671237706272, 0.7812891794690615, 0.6055830708005114, 0.3630505821205944, 0.12543787925343244, 0.022133049646252068, 0.010561974191453067, 0.010215978699749878, 0.010208673392099788, 0.010208525107165174, 0.010208522512285339, 0.01020853114946087, 0.010208507018803272, 0.010208547412369446, 0.010208576171666251, 0.01020855303684722, 0.010208494195513562, 0.010208541874603714, 0.010208593226887368, 0.010208626355659504, 0.010208632594193747, 0.010208506006557016, 0.01020852188115877, 0.010208475673238144, 0.01020850117243607, 0.010208573876149853, 0.010208536912639234, 0.010208591881184283, 0.01020861296469717, 0.010208538623334014, 0.01020854639619888, 0.010208562385152428, 0.010208617579879642, 0.010208612462905522, 0.010208528354340092, 0.010208520735833414, 0.010208587194028946, 0.01020868076547452, 0.010208571778888545, 0.010208469917839963, 0.010208491352523035, 0.0102085269599077, 0.010208587561011158, 0.010208549418607389, 0.010208608225448324, 0.010208672860368449, 0.010208603896525049, 0.010208611784380043, 0.010208513467940451, 0.010208499662114293, 0.01020857561389584, 0.010208559192124286, 0.01020853542608426, 0.01020852992527722, 0.010208486604692577, 0.010208521317373783, 0.01020853560753859, 0.01020848775773276, 0.010208475529195757, 0.010208465416839905, 0.010208478722295569, 0.010208575746285285, 0.01020454281095614, 0.010004378302780259, 0.00010124511423648409</t>
-  </si>
-  <si>
-    <t>0.9992535709445103, 0.9860441383194191, 0.994071510104087, 0.9984294875573247, 1.0029607202867294, 1.0081962018071449, 0.9909314750894122, 1.0007268273773566, 0.9981022372489562, 0.9955653281681969, 0.9969789332652073, 0.9998456746800519, 1.0060306316819427, 0.9936767450260531, 0.9982199517453567, 1.0020465228836342, 0.9975067928497102, 0.9968069400694393, 0.998383375974051, 0.9958353751229297, 0.9958490754833608, 0.9993097973662562, 1.0042082743961658, 0.9973843845226069, 0.9966101571121048, 0.9987488399900185, 1.000836458580528, 0.9971132979455379, 0.991199247500617, 0.9951041813073057, 0.9956026161483286, 0.9971571280524907, 0.9799752320867999, 0.9557724933331564, 0.9342028101874874, 0.8909028911959777, 0.7632420978900072, 0.5710538864470954, 0.31654357570932046, 0.10317033806940455, 0.01942333192327761, 0.010473842705367102, 0.010214202051527883, 0.01020876686234259, 0.010208632597664842, 0.010208658358175747, 0.010208549954429626, 0.010208538704849977, 0.010208569635424249, 0.010208557020889526, 0.01020865509400478, 0.010208592667452368, 0.01020861564268085, 0.010208619718748821, 0.010208584754969179, 0.01020859748684378, 0.010208599531529496, 0.010208672298932532, 0.010208731389625247, 0.010208495134427472, 0.010208520099601001, 0.010208582009616954, 0.010208595250044951, 0.010208579627440265, 0.010208563895857043, 0.010208610224063623, 0.010208788496710235, 0.01020856709852293, 0.010208559142888936, 0.01020856063179065, 0.010208575674380105, 0.010208625475868864, 0.010208589733770958, 0.010208604471685164, 0.010208653939884715, 0.010208611375617602, 0.010208586708971441, 0.010208590805112966, 0.010208619317903822, 0.010208613738599395, 0.010208535680765683, 0.010208562397641521, 0.010208612465122929, 0.010208566389337996, 0.010208616212445282, 0.010208702397142172, 0.010208605966803246, 0.010208572907050599, 0.01020854142340562, 0.010208577404472879, 0.010208594334805076, 0.01020858920259848, 0.010208563125245212, 0.010208549757269522, 0.010208528726785324, 0.010208577589795445, 0.010208543351724195, 0.01020459552016051, 0.010004389526816154, 0.00010175808402806459</t>
-  </si>
-  <si>
-    <t>0.9983024339133353, 1.0020733249206062, 0.9997570680993225, 0.9998486937938066, 0.9991964700877926, 0.996766486847028, 1.0004317241516807, 1.0062029345782062, 0.99461424790191, 1.0016397117695879, 1.0001911446202676, 0.9994427623601395, 1.0002784991177873, 0.9977105727335193, 0.9955285449510453, 0.9967806212220423, 0.998664782536359, 1.0027870317061736, 1.0012263211313528, 1.004666566911229, 1.005705796047642, 1.0039097969255373, 0.9993280566375404, 0.9915157197111347, 0.999690326580251, 1.0014384256388478, 1.0020503809704677, 0.9850041410301441, 0.9978676261968611, 1.0053841495522784, 0.9961012712745765, 0.9873956633814629, 0.9730751708376937, 0.9643569710495079, 0.9305296248921293, 0.857682666733522, 0.7308043384564256, 0.5239231306349414, 0.26227598713042166, 0.07140942770099168, 0.014680904492852143, 0.010318942169970794, 0.01021132917989814, 0.010208897753369254, 0.01020871757775156, 0.01020861577109435, 0.010208641653389637, 0.010208669470989109, 0.010208634982586338, 0.01020862360425978, 0.010208712321399057, 0.010208508364718682, 0.010208635834094239, 0.010208587466204767, 0.010208613469953316, 0.010208542516109084, 0.01020858006507619, 0.010208601743277725, 0.010208754388419096, 0.01020880620121866, 0.01020867885135999, 0.01020869370043385, 0.010208591932151545, 0.01020858172616412, 0.010208663003214546, 0.010208601365702237, 0.0102086930561337, 0.010208731151028183, 0.01020862033950295, 0.010208375101879785, 0.010208739985812391, 0.01020865584279951, 0.010208661249188056, 0.010208654076799628, 0.010208621998090871, 0.010208593119498887, 0.010208648045836773, 0.010208724135077996, 0.010208666626601592, 0.010208627970861892, 0.010208591314050273, 0.010208712394166474, 0.010208635120677854, 0.010208571218948845, 0.010208518759673154, 0.010208717650392548, 0.010208734056932484, 0.010208676458642948, 0.010208625819737461, 0.010208625872107144, 0.010208483880471844, 0.010208559298778121, 0.010208535226419482, 0.010208635084612512, 0.010208636813277048, 0.010208532041082748, 0.010208668302961155, 0.01020434169335775, 0.010004357598609286, 0.00010040485940278208</t>
-  </si>
-  <si>
-    <t>1.0014181490183731, 1.0102399890933857, 1.0033688459551044, 0.998275945321804, 1.0056401594294868, 1.0163704862250689, 0.9901515907927062, 0.9838834934786287, 0.9985337116888294, 1.0125275136080645, 0.9972327495649037, 0.980383398197069, 0.9863024176119607, 0.9857277209517786, 0.9776020487753126, 0.9877247448740949, 0.994700876996961, 1.0012048622692686, 1.0043919388049698, 1.0025899268506615, 0.9979362928051347, 1.00166176706688, 1.0011777793384327, 0.9988466151830565, 0.9984439035066183, 1.0014599788691325, 1.0018062160782957, 1.0017744113369975, 1.0024569648427009, 0.9989445737551829, 1.0007712056322147, 0.9953981929241335, 0.9929782587426194, 0.9808357867216172, 0.9521236983013406, 0.8946402268100502, 0.7922915363749767, 0.611502428638833, 0.3548971494375466, 0.12278087137579104, 0.02315112307844773, 0.01062203362144822, 0.010217385447918783, 0.010208928553658304, 0.010208658448174876, 0.010208687987280274, 0.010208675670403847, 0.010208694295573644, 0.010208680914795954, 0.010208691969239918, 0.010208714114504932, 0.010208708497726711, 0.010208704442408626, 0.010208696538081326, 0.010208676115590785, 0.010208694046085352, 0.01020867747720547, 0.010208667966321656, 0.010208689392540701, 0.010208678182632125, 0.010208674388801992, 0.010208715564182434, 0.010208647417149134, 0.010208689418961697, 0.010208728754646998, 0.01020864409702087, 0.010208679883677447, 0.010208667367552085, 0.010208722215219837, 0.01020868109411542, 0.010208674571108486, 0.010208692573860045, 0.010208659873776872, 0.010208709786608143, 0.010208716535149933, 0.010208694378337355, 0.010208725292204469, 0.010208677086163938, 0.010208680485254073, 0.01020866730305747, 0.01020865446053214, 0.010208702743784884, 0.010208683023779289, 0.010208692449500335, 0.010208697758056507, 0.010208658962736039, 0.010208664454244214, 0.01020867142451059, 0.010208705405449676, 0.010208674756521294, 0.010208716588550354, 0.010208677073601527, 0.01020871980607766, 0.010208653310319329, 0.010208681004346694, 0.010208667168954699, 0.0102085936396289, 0.01020449141476363, 0.01000435331724303, 0.00010003596786833683</t>
-  </si>
-  <si>
-    <t>0.9998465656991856, 0.997784958165364, 0.9997521661931232, 1.0014719315324137, 0.9991019857841696, 1.0016722444081403, 1.0000753965119562, 0.9995265977019415, 1.0000364346542925, 0.9997605407273552, 0.9996331321895269, 1.000037243748517, 1.0014755454136004, 1.001633077841197, 1.0026730352507207, 1.000981577131174, 0.9970629036118916, 1.0028451971159664, 1.0068229731687768, 0.9976820082560957, 1.0033528337622313, 1.0054350132575556, 1.0017207321315986, 0.9926003055956282, 0.9998497420503368, 0.9982464855385034, 0.9932780574075882, 0.9975726886053369, 0.9995553941343489, 0.9952336995803027, 0.9918312140367028, 0.9882377053233805, 0.9681172963046942, 0.938208192717458, 0.8838393491533306, 0.7799252929457428, 0.5895871928655906, 0.3308055492203309, 0.10994878266336398, 0.020780931844434514, 0.010525999526453824, 0.010215781636123153, 0.010209202544880894, 0.010208688048362028, 0.010209032755112292, 0.010208844533109855, 0.010209150416700544, 0.010208911671580084, 0.010209104476542363, 0.010209096391123901, 0.01020910006230066, 0.010208822418282611, 0.010208699695945678, 0.010208779615165966, 0.01020871818306951, 0.010208994697203561, 0.010209144552500327, 0.010209087044681488, 0.010208974431138445, 0.010209010777304977, 0.010208793219590447, 0.010209080318633046, 0.010209258239092689, 0.010209082002553181, 0.010209149551463147, 0.010209079386892382, 0.010209235773056232, 0.010208987452533468, 0.01020933538910519, 0.010208867295088478, 0.010208994743577414, 0.010209164432268172, 0.010209111516894697, 0.010209366310289418, 0.010209090375687055, 0.010209201230218092, 0.0102093799227354, 0.010209065358584917, 0.010209135289073018, 0.010208756459481725, 0.010209155714158306, 0.010209229932677567, 0.010209154971261358, 0.010209218535071138, 0.010209265899367388, 0.010209273450935768, 0.010209156326203346, 0.010208842376454294, 0.010209241061663956, 0.01020933689028666, 0.010208641268156024, 0.010209265151643897, 0.010209377858724798, 0.010209203346345983, 0.0102084118289014, 0.010209125085238274, 0.010208954667427475, 0.01020384872417058, 0.010004246098463747, 9.527768441466165e-05</t>
-  </si>
-  <si>
-    <t>0.999035176309462, 1.0007149311490318, 0.9998219106968957, 1.0003846172744928, 1.001041134185094, 1.0023050857107774, 0.9999973447144994, 0.9941362217342516, 1.000041706736014, 1.004516946719928, 0.999701550298139, 0.9962019801218698, 1.0013363924624215, 1.0013410489820178, 1.0011735863410491, 0.996800963452304, 1.0036449813103598, 0.9976320865591707, 0.9924538449283836, 1.0045311430508985, 0.9962491391733596, 0.9882242351251297, 0.9901356185347475, 0.9894830423895148, 0.997384516056374, 1.0023487314892272, 1.00129904112732, 1.0046690522724282, 1.0076418403276572, 1.001213651941356, 0.9903224311665118, 0.98419419959344, 0.9805972049083573, 0.954326868254032, 0.8944334751899902, 0.7863294110508725, 0.6143415653214414, 0.3612378055874789, 0.1263535503735026, 0.02327441292810663, 0.010619994692006585, 0.01021737244782857, 0.010208927238852875, 0.010208740330202928, 0.010208784567432395, 0.010208753167225417, 0.010208796696212549, 0.010208742237582271, 0.010208757903836522, 0.01020875590665699, 0.010208744494074154, 0.010208767174053208, 0.010208748035754384, 0.010208740106515644, 0.010208782958745187, 0.010208722577367994, 0.010208768140621972, 0.010208746236034728, 0.010208749554391978, 0.010208741197393451, 0.01020872710631089, 0.010208721863042947, 0.010208774563053373, 0.010208756221148417, 0.010208741165030578, 0.01020875738527644, 0.010208756864017444, 0.010208761267644632, 0.010208701504200888, 0.010208761517204927, 0.01020875415016633, 0.010208730466070067, 0.010208757037766537, 0.01020876628564884, 0.01020876452118501, 0.01020877624157316, 0.010208746889406971, 0.010208765232901446, 0.010208779304285145, 0.01020873442632736, 0.01020876353530652, 0.010208720948032214, 0.01020874615060225, 0.010208838038027444, 0.010208691666952069, 0.010208782751564125, 0.010208751341977743, 0.010208749516966834, 0.010208761905277303, 0.010208761849238331, 0.010208718902635706, 0.010208764678634913, 0.010208772781122763, 0.010208776538443548, 0.010208777551870543, 0.010208736710326538, 0.010208583449270968, 0.010204528056710547, 0.010004332363599986, 9.894059924502185e-05</t>
-  </si>
-  <si>
-    <t>1.0022084906143391, 0.9987464821710242, 1.0005324371172386, 0.999761794070469, 1.0005066105173686, 1.001361789507615, 1.0005343686904506, 1.0005293638012762, 1.000234657997771, 0.9978417372082322, 0.9994373221286498, 1.0001814127275688, 0.9969732326270836, 1.0002254185118469, 1.0032044538439762, 0.9977482822363292, 0.9917245986582796, 1.0128236908174597, 1.0409570562744408, 0.9847226369609899, 0.998699249585036, 1.0164630923184355, 1.0091221319205828, 1.0004044213192251, 0.9968968619876685, 1.0000305374754666, 1.0004650003126427, 0.999061562186816, 0.9947232357352825, 0.9963498601276158, 0.9990234454670731, 0.991439177575662, 0.9858845357554987, 0.9829917523801509, 0.9571124767080971, 0.9024421295674375, 0.805116551609988, 0.6414018699599247, 0.39286238146731967, 0.14743282568127924, 0.028726656372339315, 0.010900936310522014, 0.010223507347295355, 0.010209028818265091, 0.010208729422517349, 0.0102087645947047, 0.010208740354255043, 0.010208733196526844, 0.0102087619075696, 0.010208735368617482, 0.010208728235560117, 0.010208696818968908, 0.010208825286671492, 0.010208652200709527, 0.010208875149959743, 0.01020871721756398, 0.01020866111663006, 0.01020875348238445, 0.010208748093302562, 0.010208770629165557, 0.010208678411162034, 0.010208763175787791, 0.01020871538784981, 0.010208781492441303, 0.010208733553384289, 0.010208719581741736, 0.010208750083000973, 0.010208748337419957, 0.010208689906123874, 0.010208727785452466, 0.010208818152760592, 0.010208729154868722, 0.010208682096195831, 0.010208747978303824, 0.010208830758547663, 0.01020863097810683, 0.010208741646477306, 0.010208717039850998, 0.010208825843006778, 0.010208686307898791, 0.010208680491069742, 0.010208724691674467, 0.010208841506478399, 0.010208665029880961, 0.010208737937126927, 0.010208754385616711, 0.01020874494361572, 0.010208731705593997, 0.010208748153244943, 0.010208740362224692, 0.01020875042993527, 0.010208733166914206, 0.010208764141244506, 0.010208707934235438, 0.010208783300821176, 0.01020868414672944, 0.010208694350365585, 0.010204513099195157, 0.010004358053410505, 0.00010025299543663013</t>
-  </si>
-  <si>
-    <t>0.9975010429497453, 1.0000261239229806, 0.9991005690108724, 1.0007931475953606, 0.9933824767465638, 0.9837082010025665, 1.000144333299385, 1.015008959684894, 0.990385350156301, 0.9965309071330162, 0.999136443273593, 1.0014096522105052, 0.9895882599538494, 0.9981358598159019, 1.008850335741876, 1.0062814495039867, 1.0008834619951374, 0.9938120909175093, 0.9966440948304001, 0.9985084852745484, 0.999439465811248, 1.0047594071239563, 1.0055709314938237, 1.0069394195737005, 1.0049127934008817, 1.0021658851647557, 0.9988476897484988, 0.9967217764221669, 0.9992171036479249, 0.995664385346567, 0.9899519141421188, 0.9840690153325204, 0.9684343706804943, 0.9334546558117097, 0.8844873370596318, 0.7987428297773155, 0.6108268973898107, 0.36098388701062145, 0.13325757772878394, 0.02461240085454449, 0.010659237442315317, 0.010218300617151517, 0.010209032532254666, 0.01020883693170772, 0.010208792612587678, 0.010208777261996278, 0.010208829489100743, 0.010208842716060894, 0.010208794375840042, 0.010208769307662456, 0.010208823428842571, 0.010208834204170365, 0.010208803779217701, 0.010208797264703863, 0.010208838277970382, 0.010208827104974687, 0.010208822049710532, 0.010208813644322363, 0.010208819672770772, 0.010208852217387869, 0.010208866475967818, 0.010208867139644019, 0.010208833610934892, 0.010208832756470271, 0.010208837122387529, 0.010208830217195356, 0.010208839151002153, 0.010208835475994573, 0.010208825395553251, 0.010208800868553714, 0.010208784654926657, 0.010208797041632826, 0.01020878237542132, 0.010208829683964181, 0.01020885072933208, 0.010208825366007136, 0.01020880047749271, 0.010208777828049586, 0.010208729307273016, 0.010208732761051694, 0.010208783548745435, 0.010208752779343312, 0.010208809806445788, 0.010208826953055913, 0.010208830200952928, 0.010208845840073573, 0.010208833530829057, 0.010208809879786535, 0.010208813994813956, 0.010208792856448448, 0.01020880370339454, 0.01020881622544704, 0.010208815491248168, 0.010208839652405235, 0.010208851778535593, 0.010208847930132233, 0.010208694257029756, 0.010204503045840507, 0.010004341901583948, 9.944770453985546e-05</t>
-  </si>
-  <si>
-    <t>1.0008762667159574, 1.000594620956436, 1.0003202394301767, 0.9989454717486476, 0.999851009933953, 0.9977908318694456, 1.0000148466942642, 1.0024059822391065, 0.9999373539299709, 1.0000925279796065, 1.0006381552456316, 0.9993033716102558, 0.999501482250056, 0.9992784878549538, 0.9990279901529506, 1.0012730211334286, 1.0060828600541896, 1.0017067554403076, 0.9993235832578893, 1.000553505761463, 1.0020351714664941, 1.0025393482435052, 1.0057064359778594, 1.010551716846489, 1.0070863751046788, 1.0033689420348952, 0.9952991178378542, 1.0056845403995762, 1.0047240411928036, 0.9971724315016472, 0.9921695491354677, 0.9701000602222363, 0.9546759180148099, 0.9118423433619173, 0.824454140537519, 0.6835864586095592, 0.465659458372795, 0.22412473191299395, 0.05561023706292419, 0.012814874680835578, 0.010268134212718553, 0.010209862043349217, 0.010208631493465216, 0.010208606503000933, 0.010208695373102131, 0.010208651752606285, 0.010208599934261169, 0.01020857087916598, 0.010208594985109317, 0.0102084346935539, 0.010208554962264712, 0.010208599678039141, 0.010208557831370568, 0.010208525098682622, 0.010208519913370762, 0.010208600218850233, 0.010208575248023996, 0.01020858441891794, 0.010208548025599165, 0.010208586914675109, 0.010208646461432151, 0.01020856865976427, 0.010208612408716306, 0.010208560552065772, 0.010208527881702166, 0.010208536361129315, 0.01020855318900783, 0.010208563838015045, 0.010208589025475594, 0.010208632702178167, 0.010208581699154411, 0.010208631848928004, 0.010208512288526213, 0.010208524038701454, 0.010208587110610061, 0.010208576827454427, 0.010208560543417834, 0.01020859469141408, 0.010208695228751825, 0.010208628719642504, 0.01020858653302749, 0.010208625171144483, 0.010208692180941129, 0.010208543608323274, 0.010208594932519651, 0.010208615595287695, 0.010208638532954272, 0.01020859608929714, 0.010208596854118953, 0.010208540694532633, 0.010208587312154717, 0.01020854679147241, 0.010208542525478884, 0.010208635468259165, 0.010208587363597239, 0.010208615232439218, 0.010208521581391104, 0.010204531728041016, 0.010004365080624616, 0.00010058880770666642</t>
-  </si>
-  <si>
-    <t>0.9990289559860137, 1.0239506633376427, 1.0060423713672253, 0.9981541108078662, 1.0021626769649792, 1.0071799390448097, 1.0030266501978693, 1.0054617682910667, 1.0051573977947956, 1.000684880018994, 0.9973195959376887, 0.9997258607542393, 0.9990860783882067, 0.9999316893636528, 1.001485332253062, 1.0024604816374814, 1.0026892107502485, 1.002118449503822, 1.001623785393347, 1.0018867353157137, 1.0014153290285324, 0.9943531479374591, 0.9979380030187467, 1.0045985182925266, 1.0141581473347516, 1.0024343727391334, 0.9944686431337372, 1.0005464759504572, 0.9985032775377695, 0.9894861942496792, 0.9831155109113893, 0.9768477948481599, 0.9653261945440696, 0.9399546982291127, 0.867945966111898, 0.7537057681046913, 0.5575415015439855, 0.2894137215144567, 0.08901101230280813, 0.0171660949680754, 0.010393075187987528, 0.010213521799560166, 0.010209263331218778, 0.010209399223137244, 0.01020960004148377, 0.010209765825289178, 0.010210246917494245, 0.010210944912022643, 0.010209900819897066, 0.010208986896322205, 0.010209692931484372, 0.01020967206978301, 0.010209681095446002, 0.010209842173983786, 0.010210655509574717, 0.010210486714430509, 0.010208333784487114, 0.010208719900817183, 0.010209874318750423, 0.010210048938807592, 0.010208449119872268, 0.0102103748319285, 0.010209520834387652, 0.010208302557149902, 0.010209711250193801, 0.010209375835241518, 0.010208622579622705, 0.010209831710179973, 0.0102103318966859, 0.010208543562120883, 0.010209576325096533, 0.010209243795917911, 0.010209666897934936, 0.010210076020307667, 0.010210082745414201, 0.010210168047757427, 0.010210273314241559, 0.01021038616619668, 0.010209908816120434, 0.010209839098987082, 0.010209701990919768, 0.010209507011803644, 0.01020967140290723, 0.010209987495965769, 0.01021000354111865, 0.01020965460053057, 0.010209548690773817, 0.01021043275533401, 0.01020917404902373, 0.010210383159473821, 0.010209766735928343, 0.010209147123295093, 0.010209345114838458, 0.010209626926529722, 0.010209518353891726, 0.01020905092845852, 0.010208721202705969, 0.01020456018817838, 0.01000432452548983, 9.851201167858659e-05</t>
-  </si>
-  <si>
-    <t>0.9944530115818638, 1.0033345787212369, 0.9984662847178523, 0.9986050890646098, 1.001820670897582, 1.0010388735922089, 0.9995443764435301, 1.0000502013742902, 1.000147431502708, 1.0004343267752769, 0.9995767791996872, 0.9991115000138667, 1.0001139174202025, 1.0007120397991323, 1.002068870505262, 1.0009536201820228, 1.0021472633279342, 1.0013529025064176, 0.995745898895423, 0.9999643564039657, 1.0011064369427405, 1.000291298145395, 1.002294028544766, 1.0071930365462878, 1.0022246064339038, 1.0018332050197305, 1.000567989817685, 1.0012192376810551, 1.0047574832197042, 0.9942704430577626, 0.9797422975408034, 0.9786497814213398, 0.9588930149946467, 0.9172493046152669, 0.8332456079086894, 0.6780796564540261, 0.44340561354634217, 0.19352621511294346, 0.043237819563492014, 0.011774462737317873, 0.010242709577344846, 0.010209188994611392, 0.01020870927810168, 0.010208470036184322, 0.010208350986313484, 0.010208655247399575, 0.01020836266620392, 0.010208478365370668, 0.010208781522915258, 0.010208670535681542, 0.010208273995069803, 0.010208526770771073, 0.010208330443245957, 0.01020876223612759, 0.010208626278243399, 0.01020852082321512, 0.010208511246789903, 0.010208383344403287, 0.010208350493990251, 0.010208836772225649, 0.010208466087410398, 0.010208400935150956, 0.01020894960888722, 0.010208512892808037, 0.010208437297734666, 0.010208565277083663, 0.010208413510080738, 0.01020899108877518, 0.010208739022763738, 0.01020837636817948, 0.010208299818788394, 0.010208659985821121, 0.010208586330479818, 0.010208513677851559, 0.010208478719332096, 0.010208437575040915, 0.010208463540247546, 0.010208664150612858, 0.010208463610827192, 0.010208639282430352, 0.010208212245648142, 0.010208534940317716, 0.0102085005988016, 0.01020842450038848, 0.01020847528176585, 0.010208650072626547, 0.01020861546513638, 0.010208375461400963, 0.010208429407141083, 0.010208627176885317, 0.010208486268463188, 0.010208585329701786, 0.01020862987033441, 0.010208434380193488, 0.010208438733607111, 0.010208321532804009, 0.010208441620776339, 0.010204654185650173, 0.010004307301915087, 9.754652084785746e-05</t>
-  </si>
-  <si>
-    <t>0.9987044207317836, 1.00140374308378, 1.0002109371063728, 1.0009955848611547, 0.9981077513234852, 0.9932970281486276, 1.0095473084544788, 0.9836581407849585, 0.9995050374818805, 1.0142946515457592, 1.0026950742708731, 0.992521429916897, 1.0021912203829495, 1.0012597688231377, 1.003864308868038, 1.0016421700790243, 1.0011982285463155, 1.0009438110983255, 1.0017219278300298, 0.9998547737969443, 0.9953701400382253, 0.9876062078505091, 1.0018561754108015, 1.0026174136621073, 1.003645298342565, 0.9986242297370211, 0.9991161962842792, 0.999263596237865, 0.9985334921814869, 0.9979516589184194, 0.9946648914365953, 0.9858991515248673, 0.9657470186071828, 0.9306845808249229, 0.8607840873031376, 0.7402552952371404, 0.5382663149929187, 0.27767067857415617, 0.07791046758465064, 0.015353817947823025, 0.01033763630976046, 0.01021138132546705, 0.01020877129126899, 0.010208704313513464, 0.010208703154975393, 0.01020874574834574, 0.010208713207877407, 0.010208721435446946, 0.010208714339748962, 0.0102087158951933, 0.010208718112977685, 0.010208719833299433, 0.010208726018144335, 0.010208707059036079, 0.010208712076446146, 0.010208712212337939, 0.010208727792056444, 0.010208716337780336, 0.010208713451833188, 0.010208724192950339, 0.010208717254614724, 0.010208710568907788, 0.010208724920304214, 0.0102087257006619, 0.010208713668334434, 0.010208718445757591, 0.010208707145441042, 0.010208700820111853, 0.010208732642604917, 0.010208716475713909, 0.010208709130086162, 0.010208706901645518, 0.010208700483855259, 0.010208713053254121, 0.010208730535890827, 0.010208711717086, 0.01020872027964258, 0.01020872295097649, 0.01020871138198246, 0.010208728066483316, 0.010208715085252612, 0.01020871243880697, 0.010208722070708819, 0.010208709014501912, 0.010208710768313593, 0.010208708389437745, 0.010208711703822808, 0.01020871053462689, 0.010208715062341688, 0.0102087176166468, 0.01020871241015664, 0.01020871288814393, 0.010208717178825467, 0.010208710399552663, 0.010208724693811538, 0.010208730076655667, 0.010208627784626305, 0.010204494172792428, 0.01000434688516074, 9.97083933705023e-05</t>
-  </si>
-  <si>
-    <t>0.9977620883243778, 1.0008486128864726, 0.9993392267174428, 1.0001209392758004, 0.9955312023727371, 0.9882746585406558, 0.9956622042916116, 1.0019220377543303, 1.0001282801388487, 0.9991727924390614, 0.999869512308004, 1.0010935109665713, 0.998666985928713, 1.0004316202902088, 1.0059755854577828, 1.00046178121376, 0.9985294893718298, 1.0014664564154134, 1.0014199986947123, 0.9992018220575459, 0.996051509506167, 0.9990181223674687, 1.002548249715597, 1.0064754295821423, 0.9902472202623788, 1.0153344385210288, 1.0051509929703397, 1.0029278587106925, 0.9992831253563528, 0.9939089384086716, 0.98451910098711, 0.9700132639309892, 0.940687720084428, 0.8889877027596967, 0.7962489708468592, 0.6399293714603351, 0.4088639580376983, 0.17061284674418364, 0.03676715599885585, 0.011389082365086307, 0.010234303644569521, 0.010209336887945867, 0.010208670484745665, 0.010208778560708537, 0.010208642277815587, 0.010208720117169563, 0.010208684384303708, 0.01020872462234068, 0.010208710496359167, 0.010208704573096479, 0.010208630771499763, 0.010208767305252995, 0.010208703585150273, 0.010208683904480929, 0.010208746945300705, 0.01020869330313982, 0.01020870648150315, 0.010208699504690038, 0.010208703938452395, 0.010208704723349123, 0.010208651944110162, 0.010208766778399669, 0.01020871253963231, 0.010208703124757338, 0.01020869781999584, 0.010208701708742236, 0.010208685356143709, 0.010208686621771264, 0.010208772978049103, 0.010208695959435087, 0.010208740919261411, 0.010208697009486439, 0.01020872336856144, 0.010208674201829167, 0.010208752041007739, 0.010208618926893977, 0.010208839665419514, 0.010208652740347577, 0.010208675424361482, 0.010208738679843767, 0.010208717063072073, 0.010208659557633988, 0.010208719619018739, 0.01020865591023312, 0.010208835760462737, 0.01020865979431264, 0.010208783858924785, 0.010208692294010273, 0.01020871117132482, 0.01020869956035136, 0.010208659105773255, 0.01020878717334534, 0.01020868636520527, 0.01020871479466766, 0.010208757299265049, 0.010208715070247823, 0.010208561258015458, 0.01020450791101678, 0.010004356753966137, 0.00010019267516809384</t>
-  </si>
-  <si>
-    <t>0.9976616248521708, 1.001165163264818, 0.9994123403620784, 1.0003378082374947, 0.9977742657871378, 0.9939895719718489, 0.9979598183129944, 1.0136570296094485, 0.9985238796025832, 0.9944285352094521, 1.0004758721542204, 1.0039094802179407, 1.0007657807223396, 1.0006497796670317, 1.0027037711744151, 1.0045192389312274, 1.0077401052142314, 1.0054485855111495, 1.0045001428343352, 1.0030227614994267, 0.9990549647385132, 0.9929525483364459, 0.99709052124827, 1.0030995752630347, 1.0017743405926602, 0.9976059521679965, 0.9961393622525767, 0.9941171340670187, 0.9923218065617141, 0.9949351727697722, 0.9822679064824041, 0.9660617506426233, 0.9419519960396607, 0.8924455790706693, 0.8081002790240019, 0.6253582558869809, 0.38376715712326737, 0.14544607675390256, 0.026575733321141316, 0.01074145031210617, 0.010220062927269298, 0.010209058203788608, 0.010208845262279593, 0.010208664945941161, 0.010208753850327813, 0.010208855829212226, 0.01020882171389412, 0.010208813746277225, 0.010208809061848042, 0.01020874805622915, 0.010208812132364206, 0.010208813684908235, 0.010208880037416884, 0.010208908947024658, 0.010208620677284142, 0.010208926661915163, 0.010208760259817528, 0.010208787809476733, 0.01020893619300781, 0.01020870440427917, 0.010208905075851883, 0.010208790107574015, 0.01020885379651547, 0.010208789025869464, 0.010208581873389808, 0.010208803539559145, 0.010208816058310234, 0.010208856028423242, 0.010208769981170818, 0.01020888415958656, 0.010208782083754416, 0.010208828349753646, 0.01020873060686557, 0.010208808228064133, 0.010208857403184375, 0.010208797070983554, 0.010208868704242228, 0.010208728417549136, 0.010208850580632128, 0.0102087551000882, 0.010208835924079514, 0.010208772007746066, 0.010208812091025496, 0.01020884941511739, 0.010208855805528239, 0.010208639702122765, 0.010208915959671926, 0.01020877080237823, 0.010208866004968052, 0.010208921845921612, 0.010208861819700795, 0.010208860284451506, 0.010208759950322202, 0.010208825842510701, 0.010208789015430804, 0.010208776729852622, 0.010208668958751535, 0.010204511590341622, 0.010004370187396106, 0.00010086720124169866</t>
-  </si>
-  <si>
-    <t>1.017925101938359, 0.9942938740038665, 0.9960188603190896, 1.000367652232978, 1.000753106249905, 1.006655350528338, 0.997799176649734, 0.996755570960507, 1.0031806412859623, 1.0109346024770205, 0.9975485172656006, 0.9808089463758876, 0.9893312174666793, 0.9914747743700019, 0.9897427041614694, 1.0068314850916187, 0.9964861020265321, 1.0009516397082883, 1.0105618466425421, 1.0033541512700515, 1.0005065133917252, 0.998085803574923, 1.0000287850818546, 1.0010627559852612, 1.0024048201006315, 0.9993077192214089, 0.9874471410919917, 0.9963124384093103, 1.0003006365974039, 0.9868954295884564, 0.9814880625692036, 0.9714686145163365, 0.954192652143706, 0.9127172297392586, 0.8386171363410169, 0.6890706395912601, 0.47131933253459346, 0.21230035344643466, 0.04529867489433724, 0.0118824813651684, 0.010245901738220214, 0.010209668892063034, 0.01020882671616468, 0.010208866787005546, 0.010208867356914286, 0.010208975772202776, 0.010208829429192956, 0.010208787537211701, 0.010208902480692053, 0.010208969683539362, 0.010208806903999366, 0.01020889884471995, 0.010208753877100673, 0.010208898469171626, 0.010208803450441565, 0.010208838152213967, 0.010208942933583858, 0.010208890807807746, 0.010208950545279764, 0.010208910695199259, 0.010208918224365223, 0.010208836429859635, 0.010208767733123339, 0.01020882779918112, 0.01020901384923458, 0.01020896817115726, 0.010208842911549722, 0.010208665993537121, 0.010208488874622907, 0.010208579365945266, 0.010208783600586519, 0.010208787454636313, 0.01020892596876097, 0.010208934238770305, 0.010208999728788148, 0.010208919259587515, 0.010208958471796408, 0.010208934165919309, 0.010208738802926057, 0.0102087770415699, 0.010208922060285855, 0.010208817187475567, 0.010209007367867309, 0.010208897706154258, 0.01020891902176217, 0.010208908031577814, 0.010208885536358195, 0.01020889802854494, 0.010208898638805034, 0.010208955003528157, 0.010209015157714232, 0.010208908067858177, 0.010208742222826936, 0.010208923803599895, 0.010209004557767121, 0.010208903959870053, 0.010208688285202607, 0.010204704103450283, 0.010004303139106932, 9.728533182134778e-05</t>
-  </si>
-  <si>
-    <t>0.9583392670532641, 1.0090921167389095, 1.003160596457324, 0.9981416937002252, 1.0043072301221907, 1.0145564355302528, 0.9868174927826455, 0.9932629577767964, 0.9975587912117613, 0.9995882584088502, 1.0042405932399427, 1.0028303634955038, 1.0074524405701468, 1.010479435043885, 1.0073550035188619, 1.0025360791196598, 1.0006656502841202, 1.0009544669774775, 1.0027186251876943, 1.0048867076597254, 1.005137638914683, 1.0002070506048046, 0.9989905648744045, 1.0032028517622318, 1.0020487541304486, 1.0004296447964451, 1.0049259932472594, 1.004251345824663, 1.008508095264133, 1.0001951222588263, 0.9832434458436652, 0.9789010746444403, 0.9680051478857935, 0.9330292319139681, 0.8798962433704896, 0.7811587169874318, 0.5927023769019799, 0.3392565105427797, 0.11371704855199428, 0.021156625385417984, 0.01053891419373719, 0.010215603225344448, 0.010208883538249605, 0.010208747069911012, 0.010208732058407806, 0.010208748920536992, 0.01020871888661986, 0.010208748880467458, 0.010208747612313974, 0.01020874373263905, 0.010208738564113804, 0.010208719824044305, 0.01020867761825673, 0.010208807787324506, 0.010208724168614756, 0.010208720747161028, 0.010208756465848819, 0.010208741556442396, 0.010208739827660292, 0.010208703116349823, 0.010208785165395223, 0.01020873430321922, 0.010208707359040467, 0.010208762349072363, 0.01020874069575435, 0.010208697205541592, 0.010208771411972004, 0.010208742674745187, 0.010208731257707753, 0.010208739734352107, 0.010208763280109485, 0.010208722954370794, 0.01020871880823769, 0.010208741503930916, 0.010208735039750743, 0.010208745705900414, 0.010208708472263872, 0.010208707675231613, 0.010208778621151871, 0.010208710572690943, 0.010208771173793738, 0.010208735640136404, 0.010208707872970046, 0.010208763897246021, 0.01020874811136427, 0.01020873418512934, 0.010208755793654158, 0.01020872411035489, 0.010208737115509693, 0.01020872556612809, 0.010208772541656776, 0.010208692553252862, 0.010208717664821067, 0.01020878719835552, 0.010208733523536432, 0.010208705864115332, 0.010208649294145713, 0.010204494127282176, 0.010004488160605549, 0.00010684173549711353</t>
-  </si>
-  <si>
-    <t>1.0011669952675406, 0.9996320970027562, 1.0005321483530127, 1.000658854509434, 0.9966589705915592, 0.9904089180288576, 1.0021241444929354, 1.0145841037325805, 0.9998702051459855, 0.9852576111678343, 1.0014181964688365, 1.0184348189017944, 1.0136205187901637, 0.9999074547214738, 0.9863270860603852, 0.9960560656102202, 1.0043128309803493, 1.0021291384769087, 1.0012570962585174, 0.9959501438869278, 0.9867903801396176, 0.9980215581643824, 1.0044941791688975, 1.0008891175217602, 1.000223270704351, 1.001412879235265, 1.0002795090715986, 0.9987432596387285, 0.9969716823074366, 0.9992712829262198, 0.985868162263994, 0.963532018797826, 0.9512253544718677, 0.9139761030748201, 0.8203764228827465, 0.6527080033298923, 0.4061430126464123, 0.16259677842636802, 0.034008646422121896, 0.011204312429317718, 0.010230035876435508, 0.010209028053241505, 0.01020858660831034, 0.01020861979932074, 0.010208551069323387, 0.010208613530359059, 0.010208613187531457, 0.010208539150420047, 0.010208532194662064, 0.010208477844495401, 0.010208553142461534, 0.010208675237261945, 0.010208738031661148, 0.010208579179976928, 0.01020856952313263, 0.010208548458023723, 0.010208543815029142, 0.01020870767735678, 0.010208778168036696, 0.01020867597716742, 0.010208536487051948, 0.010208520386244075, 0.010208463757867653, 0.010208468139526824, 0.01020858564763356, 0.010208713832428263, 0.010208783893286697, 0.010208726192008239, 0.010208595092069476, 0.010208670243743686, 0.010208661928056513, 0.010208642464029067, 0.010208620940894609, 0.01020862318041969, 0.01020853682193441, 0.010208501902852872, 0.010208559153610994, 0.01020854796280656, 0.01020846222321255, 0.010208538376975287, 0.010208580672997876, 0.010208559619665655, 0.01020856550494012, 0.010208587096570599, 0.010208547052554737, 0.010208540056488084, 0.010208604544064342, 0.010208580937388733, 0.010208688972361393, 0.010208705250604414, 0.010208594123993943, 0.010208685876700676, 0.010208581188603062, 0.01020846486922816, 0.01020855096164289, 0.010208529940983464, 0.010208486155643109, 0.0102044703450393, 0.010004346824647766, 9.97296343238215e-05</t>
-  </si>
-  <si>
-    <t>1.0041517697180635, 0.9983216489141324, 1.0008427298942457, 0.9987164770843892, 1.0008194025353063, 1.002119514581834, 1.0005507567956926, 1.0020651964544003, 1.0004931251295126, 0.9973239472121268, 0.997779852080776, 0.9995142150155931, 0.9984803483759538, 0.9981019830453803, 0.9986482714702376, 0.9986031626581909, 0.9974788424753837, 0.9977097317053655, 1.0013661007327646, 0.9939524428636942, 0.9995472093812846, 1.0041354461438354, 1.0007492601498977, 0.9946929472564798, 0.9981511536955613, 0.9987884207595503, 1.0121712540198526, 0.9900633952225886, 0.9983172377739428, 1.0023743931018463, 0.9864813912612649, 0.9582711625301994, 0.9358825733329255, 0.8752306526585528, 0.7565599134405832, 0.5598737100195267, 0.2976271130047846, 0.09073114810708584, 0.017057680827416804, 0.01038919120645438, 0.010212328165667644, 0.010208677745253627, 0.010208586175148578, 0.010208534576195567, 0.01020860944040603, 0.010208670958686673, 0.01020862473158296, 0.010208508063028802, 0.010208517519994721, 0.01020863090298312, 0.010208630118168586, 0.010208473392941089, 0.010208443951709558, 0.0102084989735459, 0.010208520355950452, 0.010208596907196917, 0.010208642066235646, 0.010208588876279422, 0.010208521428926299, 0.010208547346242896, 0.010208579198095362, 0.010208626103716747, 0.010208605877445593, 0.010208601931586061, 0.010208563550209928, 0.01020854832563668, 0.010208581587384297, 0.010208575859831492, 0.01020859347874305, 0.01020861825335158, 0.010208533061360398, 0.010208521478689713, 0.010208470889750737, 0.01020849261071012, 0.010208564244509317, 0.0102085044868106, 0.010208624242445206, 0.010208642574209989, 0.010208505221116987, 0.010208542153637373, 0.0102085731565496, 0.010208538483768355, 0.010208529167163109, 0.010208532017150641, 0.010208558611314164, 0.01020855283030924, 0.010208653502034037, 0.01020872701873318, 0.010208570547346406, 0.01020847989337774, 0.010208444478794244, 0.010208532654386742, 0.010208511992744697, 0.010208497225574199, 0.010208563760857412, 0.010208588047098984, 0.010208495116154515, 0.010204397679350928, 0.010004232272920575, 9.40197200861174e-05</t>
-  </si>
-  <si>
-    <t>0.9940318531354125, 1.006040375742244, 0.999234951249014, 1.0002611161838972, 0.9991780155977831, 0.9916659654156693, 1.0022278628652332, 1.009093482721869, 1.000033261937861, 0.9925690626498013, 1.0000686364585294, 1.007172043079126, 0.9941035810983989, 1.0007374028329405, 1.0064183739502834, 0.9942562466079329, 1.0080681910840499, 0.9991177173866106, 0.9924006537626009, 1.007826878910798, 0.9953646352177683, 0.9826469142023334, 0.9940186815768847, 0.9992898135841197, 1.0029959569717473, 1.0072779786549073, 1.007390636277342, 1.006350178823414, 1.0005153901657668, 0.9892691808557378, 0.9770918123358707, 0.9694405066831538, 0.937830072907745, 0.8762773442840568, 0.7724596797256484, 0.5951936961994657, 0.34963798128884227, 0.12145446213238266, 0.023226352831766366, 0.010634319944068266, 0.010217465735536576, 0.01020860886085522, 0.010208556197481112, 0.010208418092863403, 0.01020872260900132, 0.010208464002945339, 0.010208402160637077, 0.01020890900149791, 0.010208509187523642, 0.01020868596260722, 0.010208457678662259, 0.010208485142636716, 0.010208441293780079, 0.010208612405068531, 0.01020852123519565, 0.010208422743474945, 0.010208735449538996, 0.010208466406738493, 0.01020850984863611, 0.01020836322949073, 0.010208461725751822, 0.010208518545266785, 0.010208453195525893, 0.010208462494889572, 0.010208448263418702, 0.010208466071548471, 0.010208482188115322, 0.01020844834506935, 0.010208410261056691, 0.010208581523825835, 0.010208331789784532, 0.010208668377806884, 0.010208424095937642, 0.010208480950746016, 0.010208468976007284, 0.010208429783583895, 0.010208595148318851, 0.010208509802444433, 0.010208531181476788, 0.010208389814295931, 0.010208382623583076, 0.010208570160173437, 0.010208672459961078, 0.010208451477792639, 0.01020857281845297, 0.010208364627280909, 0.010208607251243399, 0.010208438203552741, 0.010208710503565897, 0.010208352045443047, 0.01020839933686235, 0.010208559265675227, 0.01020854710545686, 0.010208512509826942, 0.010208529885872585, 0.010208322438069701, 0.010208365437554144, 0.01020448907687322, 0.0100043599881681, 0.00010037518802293378</t>
-  </si>
-  <si>
-    <t>0.9998043368149861, 1.0010704134499018, 0.9999787061158969, 0.9990562812468452, 0.9980949404868609, 0.9942336004893016, 1.0010990499743149, 1.012293907822254, 1.000005669618718, 0.9874004977693799, 1.0013642773029436, 1.016277703876067, 1.0117753419329678, 0.9993959019621272, 0.9837729138303364, 0.9922271418240907, 0.9969964707692521, 0.9985624506523724, 0.9983844482157822, 0.9995262971522381, 1.002933769066503, 1.0010704219895405, 0.9938023935537033, 0.9948561356077139, 0.9993685124167541, 1.0056367617198148, 1.001657083264914, 0.9984165121408752, 0.9985289879612408, 0.9914384369639043, 0.9742172714883136, 0.966173163873236, 0.9410459614194999, 0.8663372872644927, 0.7462260617405958, 0.5574247314394407, 0.30549879689611814, 0.09923574591336334, 0.01907953575152814, 0.010463520584091356, 0.01021411700271784, 0.01020877488113002, 0.010208826919287562, 0.010208720249572839, 0.010208716483190612, 0.010208828590801633, 0.01020863968798121, 0.010208828749284346, 0.010208737204515567, 0.010208747383814784, 0.010208795922864543, 0.010208700490940392, 0.010208672104040091, 0.010208784828791602, 0.010208787395100453, 0.01020870435297817, 0.010208769350765125, 0.010208730590490532, 0.01020875518234266, 0.010208717590113338, 0.010208756009345791, 0.010208759732034807, 0.010208730808455756, 0.010208718592583172, 0.010208752366467991, 0.010208730103344313, 0.010208803630231768, 0.010208675379988279, 0.010208793943712297, 0.010208696564729277, 0.010208754146316687, 0.01020872852171685, 0.01020873705185398, 0.010208758720252625, 0.010208761920653243, 0.01020869574968336, 0.01020877632794506, 0.010208706328044019, 0.01020877469607302, 0.010208713353235336, 0.010208773028676073, 0.010208676649907052, 0.010208782245597492, 0.01020872644850129, 0.01020875574082867, 0.01020877647617858, 0.010208725327737887, 0.010208719184726718, 0.010208729484806237, 0.010208817064703264, 0.010208655694980627, 0.0102087209409089, 0.010208820819420312, 0.010208766617074382, 0.010208734358844927, 0.01020878856572691, 0.01020866437460857, 0.01020452476979933, 0.010004349542867417, 9.981137371022775e-05</t>
-  </si>
-  <si>
-    <t>0.9972582634334055, 1.000376794231343, 0.9993989844006427, 1.0018459991864896, 0.9930055976108008, 0.979617578086515, 1.005452967523486, 1.0114615944905598, 0.9868246147246735, 1.0079521705150607, 1.0020008586434608, 0.9978974034278439, 0.9987356549117319, 1.0010437007022195, 1.0062214873458621, 0.9966472126621125, 0.9977322106110638, 0.9952086465896827, 0.9954151099103611, 0.9957289722548517, 0.9949451561564571, 0.994077235198942, 0.9899053188736804, 1.0112254126038054, 1.0091136453721077, 1.0042681489270824, 1.0000624613624187, 1.004840441889985, 1.0020899072224378, 0.9893483592304875, 0.9652970414995745, 0.9632393822802215, 0.9473561339870048, 0.8870504426512943, 0.7737834096276042, 0.5900030540226526, 0.33566064039539434, 0.10792257457474658, 0.019323223389597792, 0.010461338084179943, 0.010213942157491641, 0.010208784477863643, 0.010208668283976291, 0.010208671568189753, 0.010208668313908856, 0.010208683064084243, 0.010208700158401376, 0.010208693953389318, 0.010208690342820773, 0.010208697424844959, 0.010208697898588137, 0.010208684065067876, 0.010208705720574867, 0.010208701421494193, 0.010208735547809725, 0.010208730316677078, 0.010208689204903802, 0.010208647770272838, 0.010208650360069361, 0.010208684266961109, 0.01020870577645444, 0.010208697971615764, 0.010208676823624497, 0.010208677566072834, 0.010208677137668754, 0.010208676722753966, 0.010208703914084858, 0.01020870753799931, 0.01020866889136726, 0.010208664322863662, 0.01020869828475329, 0.01020869264234843, 0.010208696354996414, 0.010208696070544953, 0.010208681329195654, 0.010208667826108247, 0.010208680221445051, 0.010208674689496178, 0.010208713725474727, 0.010208712048502088, 0.010208699351583158, 0.010208694150371117, 0.010208689706156952, 0.0102086829130349, 0.01020867032782489, 0.010208667942156914, 0.010208669667893973, 0.010208697197550276, 0.01020870706146342, 0.010208697254502554, 0.010208687100940732, 0.010208697860814929, 0.010208702146281187, 0.010208694757440183, 0.010208687132556649, 0.010208681498252402, 0.010208621870252677, 0.010204514122282285, 0.01000435705202831, 0.00010020138900424658</t>
-  </si>
-  <si>
-    <t>1.0022067898484877, 0.9983191330616653, 0.999507428678281, 0.9972927016286453, 1.00853571315236, 1.0245523926855769, 0.9786144822218195, 1.0007584306201458, 1.003122006879161, 0.9921284362045614, 0.9954420234272092, 0.9985679469462224, 1.0010756304005963, 0.9994112588814664, 0.9967743890401357, 0.9972954864115952, 0.9975238289665881, 0.9993851907104441, 0.9994272114391285, 0.9948399408633036, 0.9917029043056457, 0.9945777464741846, 0.9994487498200081, 1.0029643104711892, 0.9971022984799844, 0.9919032254248242, 0.9961084378891099, 1.002690634061334, 0.9884996687878344, 0.9852169282142005, 0.9833732435817483, 0.9610865786562718, 0.932059822971899, 0.8595259611544277, 0.7324092191642531, 0.524902903894935, 0.27693243676809076, 0.08069056557567159, 0.01583272900954983, 0.010350343249064838, 0.010211653602249422, 0.010208780756116033, 0.010208726323249222, 0.010208721393763673, 0.010208718302236413, 0.010208720863061736, 0.010208717925432135, 0.010208717642286135, 0.01020871963919027, 0.010208721331364473, 0.010208719231066995, 0.010208721499697152, 0.010208718200252672, 0.010208713433032044, 0.010208714285313739, 0.010208713786674628, 0.010208711965848074, 0.010208717127958592, 0.010208729405780156, 0.010208727531519513, 0.010208719296112851, 0.010208715846003587, 0.010208713619008205, 0.010208715689991594, 0.010208715686991218, 0.010208720350922327, 0.010208718089611782, 0.010208718171067218, 0.01020872652215834, 0.010208724818359605, 0.010208718830900307, 0.010208713804474065, 0.01020871372350794, 0.010208718424068779, 0.010208718304316737, 0.010208718602214133, 0.010208720557074204, 0.010208715464836883, 0.010208716017981232, 0.010208720552664956, 0.010208719542871286, 0.01020871986320098, 0.01020871709499902, 0.010208712677529846, 0.010208715226045467, 0.010208720302889975, 0.01020872111944877, 0.01020872086712202, 0.0102087237437197, 0.010208725644670144, 0.010208721739178316, 0.010208716086088455, 0.010208715184550273, 0.010208716565479696, 0.010208716417693487, 0.010208716883964374, 0.01020863769175631, 0.010204515268345588, 0.010004363499917089, 0.00010052578577756167</t>
-  </si>
-  <si>
-    <t>1.000402484080658, 0.9995571041875602, 1.0005664392460039, 1.0018010722315667, 1.0001654953282202, 0.9987659983305732, 1.000653243402833, 0.9951174639600996, 0.9993201766036237, 1.003895978440624, 1.0003055959849114, 0.9993219609942848, 0.9980837393340889, 1.0003826322481462, 1.0008915578287927, 0.9976589582297899, 0.9948119342607482, 1.0025455580635716, 1.011674999490472, 1.0001114310653119, 0.9953636986137986, 0.9999725158159837, 1.0011547991368774, 1.0026056084601156, 0.9975627179082499, 0.9942740818987352, 0.9938010664213522, 0.993514415900691, 0.9877841063968958, 0.9790184105717376, 0.964716197629402, 0.9280794298231831, 0.8588205310830624, 0.7362081574194973, 0.5279375014230943, 0.2744938227508215, 0.08086592112036295, 0.01632560762596262, 0.010370987562601212, 0.010212013179951107, 0.010208774039641611, 0.010208620392171599, 0.010208636299440495, 0.010208626969440585, 0.010208657904644015, 0.01020871655324457, 0.010208618667325873, 0.010208639537412066, 0.010208677214469235, 0.010208601111585532, 0.010208648339271341, 0.010208603917849213, 0.010208677523964193, 0.010208613094531326, 0.010208730330005756, 0.010208611409073077, 0.010208607370277071, 0.010208721265993804, 0.010208652146133423, 0.010208628868082438, 0.010208629407831715, 0.010208582570001576, 0.010208636224342121, 0.010208622234262396, 0.010208688436045499, 0.010208601260753885, 0.010208646456366726, 0.010208637723113584, 0.010208666520147555, 0.010208692233399751, 0.010208721120544278, 0.010208589093953458, 0.01020864744337124, 0.01020864055520267, 0.010208649728476408, 0.01020866074118146, 0.010208630913776055, 0.010208635163623147, 0.010208694199027698, 0.010208617758654073, 0.010208665977618034, 0.010208641348100964, 0.010208639370785429, 0.010208664126602342, 0.01020865574422704, 0.010208626193097604, 0.010208635507809054, 0.010208638962313952, 0.010208675561246062, 0.010208658196134084, 0.010208630500682998, 0.01020862845881836, 0.0102086342718272, 0.010208654245347313, 0.01020864299469722, 0.010208647809297013, 0.010208584739689434, 0.010204494371423161, 0.010004363633417585, 0.00010055384483288755</t>
-  </si>
-  <si>
-    <t>1.00240187935612, 0.9978869990730805, 1.0006620718543977, 1.001109901547233, 0.9990226510585503, 0.9980405018601797, 0.999863658627243, 0.998150969909762, 0.9988394293654522, 1.001593818891751, 0.9994773513892335, 0.9979886675182792, 0.9993310711546222, 0.9996705931320587, 0.9994681830868856, 0.995972347309629, 0.991115634483989, 0.9965216337612188, 0.9999368723845, 0.9706966522210356, 0.9998683966410266, 1.0257512998505658, 1.015083184848896, 1.011746582923151, 0.9658486164784525, 0.9839663726394987, 0.9891616285176186, 0.9857634670392976, 0.9940905908251814, 1.0096685464162183, 0.989445240473515, 0.9738554681124365, 0.9430282299055786, 0.8863000150427633, 0.7935009213491753, 0.6319385206054209, 0.3826560485076622, 0.14393804747356656, 0.027770635842295426, 0.010835152118582908, 0.010221894398359514, 0.010208775777848123, 0.010208473311636863, 0.010208658120845746, 0.010208450075847851, 0.01020846505058039, 0.010208650261697785, 0.010208547681923844, 0.010208591587486207, 0.010208491765082262, 0.010208577962733804, 0.010208576556859663, 0.010208492675872583, 0.010208571706643405, 0.010208502245703433, 0.010208577242348148, 0.010208469370198859, 0.010208517317485403, 0.010208531973225311, 0.010208512165154273, 0.010208500375981665, 0.010208436593787529, 0.01020831143088633, 0.010208539985883025, 0.010208504152332924, 0.010208475909902454, 0.010208491002404271, 0.010208561471517106, 0.010208601426007767, 0.010208467724504587, 0.010208446705206096, 0.010208509773692896, 0.010208457989128547, 0.010208460158324623, 0.010208462998510293, 0.010208468310583531, 0.010208546127952887, 0.010208529185676864, 0.010208487350311513, 0.010208460817940749, 0.01020849171396683, 0.010208516219862811, 0.01020845844726836, 0.010208527366806998, 0.010208512318149093, 0.010208451690314748, 0.010208645019510002, 0.010208464001454167, 0.010208386613586666, 0.01020850753682922, 0.010208608328772182, 0.01020842290127651, 0.010208456556560684, 0.010208539838337418, 0.010208483844961438, 0.010208504971746362, 0.010208523224071217, 0.010204570429024996, 0.010004354257875122, 0.00010000287915778198</t>
-  </si>
-  <si>
-    <t>0.9981898643118708, 1.000865874344151, 0.9996170040741914, 1.0009915375386715, 0.9998208948500912, 1.0009089175159405, 1.0004180427870637, 1.0022521023007924, 1.0007828468067668, 0.9992700712540381, 1.0009898860112518, 1.0030435353694611, 1.008280019642523, 0.9990143174151317, 0.9906307598966871, 0.9942288821049022, 0.9954100577821792, 1.0057443399682846, 0.9797931382001789, 0.9926104299949086, 0.9977702577499137, 0.9991243035785944, 1.0004846916682937, 1.0012210791811786, 0.9999792401514538, 0.9966134218121465, 0.9984802055293566, 0.9913897990129892, 0.9815247910402024, 0.9761676534597298, 0.9622448164103665, 0.9323744805526972, 0.8758276575694597, 0.7539393378280674, 0.5587977299034601, 0.2905927274719578, 0.08745650330926993, 0.01697039359986254, 0.010389407431582868, 0.010212507257962043, 0.010208855730610714, 0.010208698492170381, 0.010208703145630904, 0.010208718526804144, 0.01020868605658315, 0.010208693518412934, 0.010208786992433194, 0.01020870670392822, 0.010208709599257662, 0.010208723230345456, 0.010208661948356876, 0.010208731488920224, 0.010208750072332504, 0.010208719961479425, 0.010208691546201805, 0.010208715307744972, 0.010208667693399981, 0.010208768168953362, 0.010208695626683058, 0.010208713181414284, 0.010208727737733516, 0.010208687093282029, 0.01020874081185749, 0.010208627775962046, 0.010208763101516598, 0.010208792991369614, 0.010208729905810149, 0.010208705892640502, 0.010208683777745874, 0.01020869063821604, 0.010208738241162574, 0.010208708631349615, 0.010208677113632733, 0.010208731332266801, 0.010208735562891664, 0.010208707801082054, 0.010208687914752998, 0.01020872172203641, 0.010208716434236735, 0.010208674900354488, 0.010208695587003805, 0.0102087955918821, 0.010208685689918796, 0.010208772054799663, 0.010208717759005712, 0.010208684422454938, 0.010208725505723631, 0.010208644799624307, 0.01020875983494763, 0.010208656172338555, 0.01020875208053322, 0.010208674728107738, 0.010208776287193093, 0.010208658196842867, 0.010208735588848723, 0.010208633938021402, 0.01020864132764493, 0.010204569542210754, 0.010004314075141994, 9.79748582811164e-05</t>
-  </si>
-  <si>
-    <t>1.002781621375606, 0.9999097957867658, 0.9984035915988921, 0.9913720000819645, 1.010225988875177, 1.0322212445270136, 0.971858168623844, 1.0050832549466338, 0.999431854113021, 0.9910579473197123, 0.9928164751792737, 0.9882581452283621, 0.9953996682585218, 1.001410798140451, 1.0099281414045023, 1.0010543220471562, 0.9950131592828824, 0.9973162490544459, 0.9986751848750467, 0.9986265108104386, 0.9971539292664875, 0.9939251467255997, 0.9977537831936029, 1.0010455127792282, 1.0006620678849933, 1.001615633236959, 1.0040201218570077, 1.003223676905406, 0.9998678317032262, 0.9969904935253868, 0.9840034202259578, 0.9605731810495315, 0.9363255651070533, 0.8810365221800939, 0.7588160381516337, 0.5544058603719295, 0.2883286513378356, 0.08777990762611809, 0.016965740124739222, 0.010387430523661175, 0.010212625794491347, 0.010208913483856675, 0.010208940682166111, 0.010208973077578648, 0.01020876398913043, 0.010208928673592904, 0.01020882834244828, 0.010209035473940217, 0.010208869838360113, 0.010208853736526462, 0.01020878080417068, 0.01020891224885329, 0.010209039994986834, 0.010208746749689699, 0.010208971657759811, 0.010208966290785042, 0.010208799406471656, 0.010208952219068876, 0.010209027503491466, 0.010208984399331838, 0.010208963061883215, 0.010208830733282766, 0.01020888369482955, 0.010208968754538854, 0.010208845512382986, 0.010208979890021341, 0.010208881797868849, 0.01020890601507202, 0.01020895813150903, 0.010208944264812213, 0.01020866274368247, 0.01020884061420001, 0.010209059056517594, 0.010208947821239597, 0.010208791527595606, 0.010209171772327542, 0.010208817753993495, 0.01020907516076549, 0.01020867727804989, 0.010208918275452717, 0.010209027216343008, 0.010208845116459182, 0.010208920765738115, 0.010208958601980867, 0.01020896683323227, 0.010209031150882602, 0.01020870524598676, 0.010208895179924224, 0.010209058182254774, 0.010208514036675614, 0.01020912705845748, 0.010208942231429508, 0.010208928379194519, 0.01020910225786366, 0.010208994892810228, 0.0102088652978993, 0.010208901895068012, 0.010204601529112246, 0.010004293794881124, 9.691822756228595e-05</t>
-  </si>
-  <si>
-    <t>0.9984135561478068, 0.9998652355258237, 1.0002051116466908, 1.0017660737739684, 0.9907302070930877, 0.9767667989095155, 1.0058880002461794, 1.0166763441699236, 0.9888358783132081, 1.0053186212664937, 1.0037526675277908, 0.9997529235150792, 1.0002065601433818, 1.0016570469712576, 1.0049271275507374, 1.0012768163106847, 0.9994497624070348, 0.9953263810240873, 0.9967549812201922, 0.9988181858788046, 1.0011848685638516, 0.9994398073999006, 0.9957146544320749, 0.9978000662243784, 0.9957509789241733, 0.9977960266039572, 1.0027046148432288, 1.010293903646432, 1.0078123542859312, 0.9875021246163189, 0.9632194804172513, 0.9363777633369108, 0.8714554031937727, 0.7574947587454774, 0.563131775989895, 0.3021342936563957, 0.09803370958847114, 0.019063166283890327, 0.010461043299262448, 0.010214064436501639, 0.010208894768893828, 0.010208780096151759, 0.01020880646443326, 0.010208813981861518, 0.010208805136778054, 0.010208789903650846, 0.010208726395895163, 0.010208741601762512, 0.010208814934232936, 0.010208796604821458, 0.01020879420584486, 0.010208817107753244, 0.010208819728344377, 0.01020878034022052, 0.010208735643379993, 0.010208773342268978, 0.010208802871164017, 0.010208808379039614, 0.010208788116851934, 0.010208796097444666, 0.010208808201218042, 0.01020879154116899, 0.0102087820544788, 0.010208775898958201, 0.010208778440690057, 0.010208820360915338, 0.010208847877505901, 0.010208825290801969, 0.010208780838086474, 0.010208752384218636, 0.010208758846049411, 0.010208774171989383, 0.01020879936465643, 0.010208784217273842, 0.010208775658671445, 0.010208769545493929, 0.010208791940550486, 0.010208814507268436, 0.010208789797798727, 0.0102087794396061, 0.0102087752900597, 0.010208784690002198, 0.010208788585272504, 0.010208784282268917, 0.010208789661913754, 0.0102087964579661, 0.010208791732195261, 0.010208798195804699, 0.010208816275283836, 0.010208814893391142, 0.01020877879336994, 0.010208750025675254, 0.010208765983438893, 0.010208765328446485, 0.010208779806486094, 0.010208797508435173, 0.010208692695409097, 0.01020451524201771, 0.010004353844563494, 0.00010003829257961985</t>
-  </si>
-  <si>
-    <t>1.0014648513348012, 0.9992659756592747, 1.0010780221557292, 1.0017220691646729, 0.9871783846707385, 0.9642655512208436, 1.0249235543615631, 0.9977105884413655, 1.000019423266638, 1.0017271866956252, 1.0054336472635632, 1.0096290981730331, 0.9971749967145546, 0.9814786408745423, 0.9920768019895388, 0.9969738772380478, 0.9966792231204844, 0.9941637309545773, 0.9974141237374923, 0.9995450313258523, 0.9976327507481354, 0.9944275478470662, 0.9934372926960237, 0.9967850041472689, 1.0000602219257049, 1.000999016446303, 1.0030042467835696, 0.9972791324830735, 0.98635949001719, 0.9906564053275427, 0.990923149167589, 0.9569707031858441, 0.9215460182131576, 0.8524895790812074, 0.7125457996757483, 0.49544987288260833, 0.24281518476767225, 0.06481026896574707, 0.013961024795357158, 0.010298798221985227, 0.01021054767190515, 0.010208760338570051, 0.010208512906782718, 0.010208527503912808, 0.010208499597115476, 0.01020853884573389, 0.010208585449849822, 0.010208538446275301, 0.010208515783300058, 0.01020857459582853, 0.010208625173021965, 0.010208620315240181, 0.010208572515145408, 0.010208544045563366, 0.010208527051962357, 0.010208597531204856, 0.010208599062602896, 0.010208583835161352, 0.01020855321522705, 0.010208671318771255, 0.010208757317862924, 0.010208479939173272, 0.010208522294546322, 0.010208529209441807, 0.010208481592208371, 0.010208632583284501, 0.01020856690520936, 0.01020854033371708, 0.010208536098222608, 0.010208534706140238, 0.01020858339156946, 0.010208579413348217, 0.01020856386088019, 0.010208521683701706, 0.010208414631038444, 0.010208546088927685, 0.010208615620402067, 0.010208552504650765, 0.010208582153551228, 0.010208590404041077, 0.010208546935242693, 0.010208524099222212, 0.010208537310237962, 0.010208533294315333, 0.010208495564122061, 0.010208496080291196, 0.010208531471382723, 0.010208639407667903, 0.010208682789213148, 0.010208513485290959, 0.010208518267865093, 0.010208522843323818, 0.010208468739642295, 0.010208545741447443, 0.010208572934726854, 0.010208512790995192, 0.010208471792136792, 0.01020449879384583, 0.010004343919312915, 9.955391841115114e-05</t>
-  </si>
-  <si>
-    <t>1.0001070218768648, 0.996973302157712, 0.9980619452555094, 0.9984056515542352, 0.9800832476317731, 0.9534501072086132, 0.9847968057829158, 1.0032717277332266, 1.002862429644705, 0.9925176902033482, 1.0003778979900004, 1.0090176802114426, 0.9894478177526258, 0.9972982643555445, 1.0057669215597964, 1.0005191018075605, 0.9981334517497561, 1.0020957869799674, 0.9962874384551221, 0.9975037360118996, 1.0034629088634013, 1.0035418399861675, 0.9998566492082032, 0.9962467731680559, 1.0008663939608229, 0.9989124980482033, 1.000472262191119, 1.0024502275874636, 0.9914580739195695, 0.9723844688445379, 0.9668549467016563, 0.9494964490622272, 0.9125018280527466, 0.7955443091195914, 0.6222733439711706, 0.38142088557542125, 0.1440421202601309, 0.027434748024097688, 0.010818038736988212, 0.01022164876204116, 0.010209005809476404, 0.010208740998903837, 0.010208739395656625, 0.010208744328980989, 0.010208744691285285, 0.010208744500754348, 0.010208746386313234, 0.010208746974025372, 0.010208747312734716, 0.01020874882590366, 0.010208749622603396, 0.010208748185530515, 0.01020874695986649, 0.0102087460180016, 0.010208750233640393, 0.010208751015777423, 0.010208746777790498, 0.010208747633999636, 0.01020875128842587, 0.010208746553379154, 0.01020874361236008, 0.010208749266039423, 0.010208748558943666, 0.010208744295238032, 0.010208742836889852, 0.010208744331581802, 0.010208737049724637, 0.010208737573382273, 0.010208741240371208, 0.010208734922203212, 0.010208736674667342, 0.010208741453670164, 0.01020874619903849, 0.010208741490432957, 0.010208737149998582, 0.010208744813567943, 0.010208740356896192, 0.01020873106220562, 0.010208737534457895, 0.010208744493959945, 0.010208741903459825, 0.01020874488180826, 0.010208750581315212, 0.010208753101022445, 0.010208747837485644, 0.010208746553278544, 0.010208751516995481, 0.01020874873185494, 0.010208745623876261, 0.010208747877224335, 0.010208748454949916, 0.010208753022101412, 0.010208752337155014, 0.010208750173101222, 0.010208754202709034, 0.010208747325137477, 0.010208650757726484, 0.010204517439065287, 0.010004365527001206, 0.00010062589535744691</t>
-  </si>
-  <si>
-    <t>0.9991860618746906, 1.0003725744599246, 0.9993756627452681, 1.0011299234252793, 0.9998953599628557, 1.0024649856762768, 1.0010618702118328, 0.9973471220024412, 1.0017953408080018, 0.9956109476419621, 0.9983291877908279, 0.9997216045136975, 0.9982266560349157, 1.0032440574221073, 1.0118998690970906, 0.9983027659470517, 0.978634889765717, 0.98935660848842, 0.9924977121829406, 0.9922815329712338, 1.002800552907123, 1.0184391529593986, 1.0096628581635836, 1.0081136600956355, 0.9847319002028743, 0.9938258031730973, 0.9960628248229393, 0.9919741954599279, 0.976321692550528, 0.9629123036797145, 0.9276328576459435, 0.8567936290469587, 0.7340686138539363, 0.5466384069347583, 0.3085831045355084, 0.10456109026159374, 0.019174563009594373, 0.010445364613639551, 0.01021372713998428, 0.010208954320386373, 0.010208769062615844, 0.010208725047880594, 0.010208811692935658, 0.01020879847421936, 0.010208770062564482, 0.010208781326600632, 0.010208809360736194, 0.010208787929684077, 0.010208779708070747, 0.010208785256041169, 0.010208804217683519, 0.010208804998470596, 0.010208783780835014, 0.010208853829756233, 0.010208785968965755, 0.010208825136800782, 0.010208806841343787, 0.010208811852213298, 0.010208829515067248, 0.010208808730446937, 0.010208782744807176, 0.01020875182094185, 0.010208770494533514, 0.010208751030128003, 0.01020880010973071, 0.010208860507328244, 0.010208655532423649, 0.01020879460866214, 0.010208791347942562, 0.010208821741794803, 0.010208811465343385, 0.01020879699602483, 0.01020882666860503, 0.01020869027602138, 0.010208817309201637, 0.01020877140847799, 0.010208747171808134, 0.010208806219650321, 0.010208827456012934, 0.01020880475779038, 0.010208854756917006, 0.010208806725361721, 0.0102087977912896, 0.010208853709849907, 0.010208745226369867, 0.010208793777965889, 0.010208787712449067, 0.010208777091383762, 0.010208862570286746, 0.010208831512152725, 0.010208776464945519, 0.010208783985282164, 0.010208855231193005, 0.010208806117138836, 0.010208824405302639, 0.010208855643188101, 0.010208664937253076, 0.010204541668724466, 0.010004353338542878, 9.998578363567794e-05</t>
+    <t>0.9987916917559324, 1.0005318229156472, 0.9995644990212778, 1.001018293971858, 0.9989898399461765, 1.0011178834362533, 1.000153723199162, 0.9979376853743764, 1.00334624204542, 0.9994099812818041, 1.0003253829861194, 0.999398872002668, 0.9986417065165797, 0.9972074290807481, 0.9953361345280572, 0.99540378263933, 0.996134105381905, 0.9966531724496456, 0.9936804150342218, 0.9935366370687831, 0.997756068049359, 0.9996322962590746, 0.9994588329485959, 1.002339534605958, 0.9990168411956544, 0.9875974226539457, 0.9919695540420397, 0.9980111383841301, 1.0002659202373028, 0.9863107044102799, 0.963423671139985, 0.9665923261002916, 0.9586083498158727, 0.9007370166687922, 0.7950004556814823, 0.6271304940680367, 0.38675426834302923, 0.14582743054667263, 0.027246598896032016, 0.010788629818657107, 0.010220950962986648, 0.010208945427617466, 0.010208686371660726, 0.010208717935376694, 0.010208742270512182, 0.010208710886424381, 0.010208651823478824, 0.010208738106708387, 0.010208750457563014, 0.010208700842492922, 0.010208703626028782, 0.010208666202498159, 0.010208767530393171, 0.01020865694911708, 0.010208756899299393, 0.010208693324222456, 0.010208704460988052, 0.010208652825631652, 0.010208783408682804, 0.010208697549679893, 0.010208714827507842, 0.010208694768913004, 0.010208697692349045, 0.010208686163604156, 0.010208697564729943, 0.010208739761731917, 0.010208761281033199, 0.010208705045877875, 0.010208725220676071, 0.010208690226037863, 0.010208705712146856, 0.010208683010664963, 0.010208731738740656, 0.010208676028975716, 0.01020874829268393, 0.010208675637092268, 0.01020871729542196, 0.010208679627780267, 0.010208740282344394, 0.010208706897184535, 0.01020870157327656, 0.01020866026616919, 0.01020872399449159, 0.010208724620433283, 0.010208688105914736, 0.010208732297228415, 0.010208680035205751, 0.010208725733898059, 0.010208696343659208, 0.010208693420592413, 0.010208720540038558, 0.01020866839770195, 0.010208705185859148, 0.010208701173819933, 0.010208671258819255, 0.010208720576579993, 0.010208597360645314, 0.010204491511043289, 0.010004377998312101, 0.00010128207487766379</t>
+  </si>
+  <si>
+    <t>1.000652046288202, 0.9981696584953292, 1.0001700940032372, 1.0008318427123226, 0.9924035744780082, 0.9822517275754419, 0.9918465511292817, 1.001473446179719, 1.0020463632498666, 1.0023783100502008, 1.0019955732707397, 0.9979779387816067, 0.9986211165645087, 0.9988154382729281, 0.9985123386650883, 0.9967746966928285, 1.0015493920878455, 1.001299764339802, 1.0031082095750392, 0.9979185633614424, 0.9900443030851057, 1.0095977749962695, 1.00371900092074, 0.9969256853816524, 1.0031475908765204, 1.0001105657356537, 1.0035583777281216, 0.9984789034085769, 0.9934991190555805, 0.9845759251855799, 0.9731634352501611, 0.9557812996961486, 0.9221858145039323, 0.8666327313418061, 0.7499884148395439, 0.5481404083344612, 0.28498294582955735, 0.07917561524716633, 0.015084975056050966, 0.010328156995695038, 0.010211200351286717, 0.010208762649247707, 0.010208708008294867, 0.010208716543953058, 0.010208714357329986, 0.01020870286856649, 0.01020871098612918, 0.010208717927922863, 0.010208724484011255, 0.010208724322723845, 0.010208733844890695, 0.010208738422567474, 0.010208727838007484, 0.01020873060684576, 0.010208718838621953, 0.010208713784004435, 0.010208714852316406, 0.010208712464220518, 0.010208718444586167, 0.010208722781136513, 0.010208713259929253, 0.010208711523673393, 0.010208716935805289, 0.010208721857370415, 0.010208723091511999, 0.01020872655931582, 0.01020871552784554, 0.010208707054971693, 0.01020871393106028, 0.010208725457042524, 0.01020871928406357, 0.010208735113802412, 0.010208726326755553, 0.010208706691184484, 0.010208710625042751, 0.010208716958228073, 0.010208725573170081, 0.010208728861486696, 0.010208733715936573, 0.010208732730565299, 0.01020872890499453, 0.01020871812456297, 0.010208711700269353, 0.010208721123062744, 0.010208730910463353, 0.010208728557593801, 0.010208728433929896, 0.010208734373556906, 0.010208738106795777, 0.01020871923869851, 0.010208710605879419, 0.010208718001114704, 0.010208716450338988, 0.010208711372034537, 0.010208716191914114, 0.01020871792869657, 0.010208649189389341, 0.010204520152132657, 0.01000434951334692, 9.981460724134644e-05</t>
+  </si>
+  <si>
+    <t>1.0057367098568437, 0.9982782535975131, 1.001488887333493, 1.0010049905022806, 0.9979082010549024, 0.9915679233630483, 1.0075409541698188, 1.0005099951875311, 1.0008511706783443, 1.0016092974590658, 1.0057857762165645, 1.004321683552696, 1.000585303990938, 0.997819182615158, 0.9976342564000736, 1.0005936338494312, 1.0059394029783448, 1.0049718726008603, 1.0027416969738636, 1.0009207243198588, 0.9982340475198346, 0.9988257967660533, 0.999233097711275, 1.0041674549194364, 1.0099590350794125, 1.0009013439709114, 0.9960447393750076, 0.9903667244997576, 0.9912470782328399, 0.9853745535542211, 0.9687728304706344, 0.9426399498470799, 0.8959120159061397, 0.7922818167021313, 0.6275746225639524, 0.3891381627066831, 0.1530694872855878, 0.031143844235024472, 0.011043357844427011, 0.010226507085932311, 0.01020925195608717, 0.010208741119346207, 0.01020874070073152, 0.010208726319829104, 0.01020869231211509, 0.010208715344462643, 0.010208886979013551, 0.010208727008336213, 0.010208706734510516, 0.010208832827538122, 0.010208770144956662, 0.010208643759581726, 0.010208742430159323, 0.010208807822957449, 0.010208851296295425, 0.010208718454874704, 0.010208893803288842, 0.010208724936845801, 0.01020873520167086, 0.010208699332684965, 0.010208803585038721, 0.010208880910383137, 0.010208697352344613, 0.010208663521953019, 0.010208863693970501, 0.01020878878432952, 0.010208802387176242, 0.010208837567432065, 0.010208737366053117, 0.010208697922778035, 0.010208787173080642, 0.010208902450383308, 0.010208732991698164, 0.010208711243387309, 0.010208781312904034, 0.010208852558875207, 0.010208770039531098, 0.0102087838794195, 0.010208675288522418, 0.010208755460634177, 0.010208792182365858, 0.010208806635597001, 0.010208777498272948, 0.010208851341981382, 0.010208823252110278, 0.010208806797102711, 0.010208748446088803, 0.01020872810171199, 0.010208785895978213, 0.010208768888966664, 0.01020880252223563, 0.010208734744204926, 0.010208877460232375, 0.010208756373086754, 0.010208688194727346, 0.010208794767198475, 0.010208637734353494, 0.010204586793133538, 0.010004565195508231, 0.00011063691229749005</t>
+  </si>
+  <si>
+    <t>0.9864493488774306, 1.0380038995374796, 1.0224433296900368, 1.016912290315816, 0.9734705243605953, 0.9823037633956454, 0.9954807443384731, 1.0059581536524618, 0.9945757711697872, 0.9800467791680318, 0.9953404913133799, 1.0077848092760822, 1.0233923949600165, 1.0136451275245548, 1.010859377726707, 1.0038755302268119, 0.9996492506502904, 0.9980630939712147, 0.9980341872413372, 0.998532423764323, 1.000305279819067, 1.0017750922475743, 1.0008987752874516, 1.0015744961440158, 1.0022971814002277, 1.000869814399527, 0.9988251056828535, 0.9920171513254453, 0.9944853324045991, 1.0012013672840274, 0.9895685433417356, 0.9795726035556725, 0.9604675362763379, 0.9275744010517122, 0.8641725301535137, 0.7622357552441308, 0.5577561723794594, 0.30555968795226485, 0.09790543040602412, 0.018735161536031688, 0.010449525800230551, 0.010213750401555548, 0.010208834225219017, 0.010208733897571301, 0.010208733568622268, 0.010208726332689239, 0.010208730588158762, 0.010208733426879427, 0.010208729735849697, 0.010208731600401245, 0.010208731212673667, 0.01020873109616378, 0.010208731773289046, 0.010208737679979768, 0.010208724467994633, 0.01020872610765494, 0.010208728661904783, 0.010208736622094195, 0.010208732441968557, 0.010208721691302212, 0.010208735349999873, 0.01020872782215267, 0.010208726564212924, 0.010208731424825639, 0.010208729568390465, 0.010208730156076876, 0.010208733283427435, 0.010208729894169861, 0.010208731460187975, 0.010208730335538499, 0.0102087332513108, 0.010208733444574968, 0.01020873422305175, 0.01020872646317258, 0.010208723848949795, 0.010208733036036071, 0.010208731102102298, 0.010208724882693122, 0.01020873094970645, 0.010208736594887528, 0.010208726308270674, 0.0102087297914767, 0.010208730332532693, 0.010208730350859141, 0.010208731973893683, 0.010208731900996713, 0.010208731240600103, 0.010208726794247072, 0.010208730635721896, 0.010208733741672705, 0.010208731630155898, 0.01020873046339959, 0.010208730596851798, 0.010208726889645196, 0.01020873549269885, 0.010208733610603284, 0.010208640614297522, 0.01020451504026728, 0.010004355308714057, 0.00010011242649416637</t>
+  </si>
+  <si>
+    <t>0.9950881034753188, 1.003337106777661, 0.9993728857090304, 0.9976137508628209, 1.000820363049219, 1.0022959987521844, 0.9987404692366157, 1.0027924918825113, 1.000187924866725, 0.9977509398607964, 0.9910585272376522, 0.9984253179667685, 1.0004993026922138, 1.0003964645277457, 1.001387730687433, 0.9955969199269596, 0.9952106930722739, 0.9925072770218963, 0.9929602149899319, 0.9974560168578521, 1.0023768789619332, 0.9922021175784907, 0.9976259653163924, 1.0084771541786361, 1.0010773079196515, 0.9974067103232459, 0.9951731390172622, 1.0053760325477006, 0.9834995795387489, 0.9757827479453604, 0.964905268588728, 0.9312445434391566, 0.8688900491362249, 0.7421435877448161, 0.5453877090641741, 0.2869805573857353, 0.0850148146110207, 0.01624080892191831, 0.010363748302948183, 0.010211909626180096, 0.010208846459658425, 0.010208989001429488, 0.010208496204234021, 0.010208464890753149, 0.010208466451162558, 0.010208516242328824, 0.010208618182470977, 0.010208707215517176, 0.010208632316527395, 0.010208354545649344, 0.010208533721869736, 0.01020886115820249, 0.010208363603343634, 0.010208425572866857, 0.01020858448040938, 0.010208400168896287, 0.010208589575589474, 0.010208455711865825, 0.010208626429732935, 0.010208688078347067, 0.01020849671289414, 0.010208790663951126, 0.010208575983529701, 0.010208554626716498, 0.010208698592027854, 0.010208554937975881, 0.010208514273729959, 0.010208529896173187, 0.010208561101386375, 0.01020858720364871, 0.010208760921475603, 0.010208574813329182, 0.010208387077462938, 0.010208420662759884, 0.01020878110833167, 0.010208633590350293, 0.010208638132908001, 0.010208499764403984, 0.010208596786567839, 0.010208538022925364, 0.01020842763321137, 0.01020861066299129, 0.0102083966607423, 0.010208576607857948, 0.010208591451774166, 0.010208400357901937, 0.01020843326179152, 0.010208515985265575, 0.010208540364332873, 0.010208645291325933, 0.010208546647075835, 0.010208653063177581, 0.010208778456914985, 0.010208756410714387, 0.010208791144605963, 0.01020863795423998, 0.010208312529333016, 0.010204465458621982, 0.010004317147011154, 9.823612997238949e-05</t>
+  </si>
+  <si>
+    <t>1.0026229688751376, 0.9965280344552712, 1.0003670334051231, 1.0003902750974076, 0.997958937991051, 0.9976203355131247, 1.0003690716003037, 1.005504578167819, 1.000272614463311, 0.9974929385707916, 1.0000561951009246, 1.0021161970928945, 0.9958096587095342, 0.997445437717788, 0.9985745928468318, 0.9992355693761167, 1.0039859252775902, 0.9996676960860047, 0.9960152491421901, 1.0001682588469385, 0.9999805475035893, 0.9987615300446377, 0.9985202856975098, 0.9976408649820525, 0.9986624715569548, 0.9977105469417581, 0.9968079944921262, 0.9929355716580711, 0.9890802748847235, 0.9695601700304851, 0.9347818747511257, 0.8872364075997753, 0.7897722170106509, 0.6060434249615512, 0.35547062886265235, 0.12718265808640658, 0.025180129222050276, 0.010731059183546643, 0.010219449691047948, 0.010209233916895016, 0.010208945363088825, 0.010208885746374389, 0.010208955378350783, 0.010208644230240978, 0.010208801841786616, 0.01020898735310233, 0.010208774949091124, 0.010208902680162647, 0.010208927464076815, 0.010208655950333092, 0.010208972181969415, 0.010208735593872023, 0.010208864414148424, 0.01020856315216013, 0.010208701379738028, 0.01020877286889043, 0.010208648644244528, 0.010208897307568477, 0.010209029590144771, 0.010209041688709156, 0.010208801980181864, 0.010208874752722513, 0.010208897613583859, 0.010208658697888201, 0.010208953496013366, 0.010208624837071417, 0.01020892352586515, 0.010208912921588893, 0.010209014958715712, 0.010209060561101716, 0.010208736940953452, 0.010209027057332431, 0.01020874080163759, 0.010208702406260926, 0.01020886228618863, 0.01020888733485185, 0.01020892681834872, 0.010208687589899087, 0.010208804279979356, 0.010208886580154047, 0.010208767551160633, 0.010208977317416363, 0.010209079893999277, 0.010208810769250905, 0.010209007944971652, 0.010208670602565898, 0.010209137502057642, 0.010208825735738848, 0.010208687481352724, 0.010208805487679428, 0.010208881175755217, 0.010208875443545323, 0.010208919776851833, 0.010208631414251872, 0.010209071918487468, 0.01020911088775385, 0.01020868066193438, 0.010204507759017272, 0.0100043556325562, 0.00010013620824950348</t>
+  </si>
+  <si>
+    <t>1.0167955377586935, 1.009883751881123, 0.9818459306100226, 0.9942973278916849, 1.0017074179156864, 1.0044231924348732, 1.0118403287334639, 0.9952536703321383, 0.9988122714916602, 0.9984303924301601, 0.9997445046097676, 0.9990614750139514, 0.997713694051321, 0.998124685940767, 0.9982164092565472, 1.0007950384373065, 1.002519393505536, 0.9998462586385475, 1.002122692624177, 0.9998416136506321, 1.000865817505816, 1.0025365016508514, 1.0008668733458252, 0.9992681023112218, 0.9966053116479215, 0.9941554137933971, 0.9848595868229623, 0.9866859887512409, 0.990390836676875, 0.982266680498017, 0.962555817371235, 0.9032729892570446, 0.8043419963736126, 0.6560972149348883, 0.43103501267769717, 0.17749116868300058, 0.034763765597506394, 0.011171029696942052, 0.010231752146001399, 0.010210554774768302, 0.010209390853930593, 0.010209883196332462, 0.010209880188642006, 0.010210259390201247, 0.010209659214509836, 0.01021038749895173, 0.010210423572203918, 0.010209860753311904, 0.010210189492045824, 0.010210782501822457, 0.010210136996341036, 0.010210240042140706, 0.010208196762469599, 0.010209511611720162, 0.010209348735393012, 0.01020818616606238, 0.010209188277363014, 0.010209093960611402, 0.010209964628126664, 0.010210742831329767, 0.010210735685845023, 0.01020989562720557, 0.010210266024393982, 0.01020916383326573, 0.010209633428765017, 0.010209750006471159, 0.010209959628349358, 0.010209708185033457, 0.010207759712194982, 0.010209870118112583, 0.010209315594151587, 0.010210279245736958, 0.01021028016722869, 0.010210742483735899, 0.010210046592359898, 0.010208050724549845, 0.010209160548963663, 0.010210485108139598, 0.01021108161971491, 0.010209985810314775, 0.010207938579595835, 0.010209859967018387, 0.010210182739272372, 0.010210030898483213, 0.010210067837549136, 0.01020959057654586, 0.01020879685819797, 0.010209516160614137, 0.010209695383278884, 0.010211020289014355, 0.010208044548925084, 0.010208315993917284, 0.010209224588867066, 0.010209278532447833, 0.010209799411811226, 0.010208977440772577, 0.010210833106306598, 0.010205597467865495, 0.010004105467497838, 8.63946939925738e-05</t>
+  </si>
+  <si>
+    <t>0.999970480246329, 1.0028377514135014, 0.9991266791408829, 0.9981108072759665, 1.0018690709987843, 1.0034096112467932, 1.000455644460979, 1.000789766379157, 1.0013092927718832, 0.9966433321477436, 0.9990325001485791, 0.9995694581720359, 0.9989896904504381, 1.001032854286614, 0.9990185569323253, 0.9993647985192967, 1.0009725408629235, 1.0000067172501221, 1.0015243524442567, 1.0020936409046257, 1.0047656469957695, 1.003537897583147, 1.000232237636191, 0.9953289605495068, 1.0001539084615316, 1.0046237880395754, 1.0129256782152192, 0.9897601865121065, 0.9776630656531002, 0.9802445679596518, 0.9390577534938672, 0.865102951846916, 0.7421380321214718, 0.5436615191782371, 0.28830240629522413, 0.08649467410614667, 0.017056456037248327, 0.010394384859401407, 0.01021250668747744, 0.010208626392509747, 0.010208565825537861, 0.01020855565033573, 0.010208656807459826, 0.010208611713187737, 0.010208660640416868, 0.01020853908413863, 0.010208462115893654, 0.010208630839235374, 0.010208602358431334, 0.010208655644949459, 0.010208759266670513, 0.010208635244620469, 0.01020853222183648, 0.010208625045191898, 0.010208674936988018, 0.010208639320607834, 0.010208720724864671, 0.010208757213078793, 0.010208656173187804, 0.010208570165100662, 0.0102087223674876, 0.0102087704822222, 0.010208564063104018, 0.010208472652141493, 0.01020861547959532, 0.010208598072477003, 0.010208502940449074, 0.010208598468945035, 0.010208536853627511, 0.010208864546491168, 0.010208746163038903, 0.010208607662128808, 0.010208510566376606, 0.010208596567004445, 0.010208543162242782, 0.010208559396424106, 0.010208630469000083, 0.010208672490598664, 0.010208559079092768, 0.010208637366041943, 0.01020861909568332, 0.010208667175095656, 0.010208749099720239, 0.010208722310195586, 0.010208544398915312, 0.010208491758469721, 0.010208657031349001, 0.010208797357421195, 0.010208685424767988, 0.010208559102724689, 0.01020850881571174, 0.010208592205098739, 0.010208618365852561, 0.010208693880833439, 0.010208651118626523, 0.010208751562400897, 0.010208751470345074, 0.010204554266426339, 0.010004375041644987, 0.00010106878028244472</t>
+  </si>
+  <si>
+    <t>1.0011192240867095, 1.0114124444623682, 1.0055565967282523, 0.9957681638751036, 0.9938038026813347, 1.0036956387521725, 1.0013688481287137, 0.9972476681406701, 0.9988945960557385, 1.0013594999865698, 1.0012438965567008, 1.0000940858412921, 1.000769523376034, 1.004189071526192, 1.0125087276336593, 1.0294089325932705, 1.0077949456928286, 0.988808759391086, 1.006137429742074, 1.0267010305940296, 0.9980924544559642, 0.9682138984749386, 0.9895897358373809, 1.006813672724745, 1.0040312809149576, 1.0067451675701686, 1.0060362234213474, 0.9967512978264119, 0.9902535175114038, 0.9880038861510781, 0.9713145414244193, 0.9256404398664086, 0.8617836271143702, 0.7402722102372349, 0.5411228089306621, 0.2867668258460284, 0.08414681443828159, 0.016107587264055305, 0.010358403449313157, 0.010211243458381064, 0.010209599974000866, 0.010208248788012315, 0.010207258872795076, 0.010208428485236403, 0.010208329479201429, 0.0102070172102578, 0.010207876312841903, 0.010208325163031436, 0.010207921368782845, 0.010207392045784334, 0.010207353526651709, 0.010207815813984188, 0.010208327025234656, 0.010208127745728508, 0.010206773031049355, 0.0102067242745296, 0.010208352688142639, 0.010209197497023577, 0.010209325856060396, 0.01020834195212327, 0.010206470344596251, 0.010206974550636835, 0.010208978474098003, 0.010208223079104167, 0.010207689702478711, 0.0102079440863631, 0.01020729876106739, 0.010208815116009053, 0.01020904961200054, 0.010209674576916959, 0.010209446721163107, 0.010207121165378665, 0.010207169499179259, 0.01020764768596702, 0.01020774801542375, 0.010207863928321933, 0.010207752225124864, 0.010208098176845593, 0.010208236144373538, 0.010207668650635224, 0.010208639366600838, 0.010208542559245738, 0.010208133306485283, 0.01020849664335656, 0.010209377221128598, 0.010209232266757837, 0.010208254150812125, 0.010207971721088886, 0.010207248398586806, 0.010207120776695599, 0.010207742464308698, 0.01020763591496864, 0.010207076121548904, 0.010208446038732197, 0.010210514793061199, 0.010209021092497545, 0.010207779091369553, 0.010204956145490635, 0.010004905335841148, 0.00012743395522613917</t>
+  </si>
+  <si>
+    <t>1.0057291111711761, 0.9965475764255046, 1.000243914445551, 1.0009276415538575, 1.0005637468138981, 1.00519276923705, 0.9984639235994249, 1.0011933400150255, 1.0002606587066543, 0.9976895220061774, 0.9988177389911197, 0.9979455808619317, 0.9924678690614468, 0.9948368057292107, 0.9980832257858682, 0.994932471843602, 0.9984759991691534, 1.00094800815022, 1.0050408654951648, 0.9963675210876423, 0.9951541481935379, 0.9998567984287665, 1.0076515907391017, 1.0058022416123598, 1.0013641783505522, 1.000805185945067, 0.9959236635587888, 0.9873453729861308, 0.9711163364371562, 0.9543336275354384, 0.9247552502251984, 0.8543871259783942, 0.7184002950531052, 0.49333715661631894, 0.24321706105047128, 0.06316484099563963, 0.013518564389903088, 0.010285952374350335, 0.010210340451419622, 0.010208796417102262, 0.010208830708690985, 0.01020881572221353, 0.010208832877352867, 0.010208822926766836, 0.010208757896099823, 0.010208925015889225, 0.0102088415741769, 0.010208736058223566, 0.010208826552373111, 0.010208850201746129, 0.010208839088990458, 0.0102088305702718, 0.010208889082012304, 0.01020881634797892, 0.010208924410489246, 0.010208938977409807, 0.01020890869836299, 0.010208888386439713, 0.010208855660456597, 0.010208749826679152, 0.01020886767723502, 0.010208842316887248, 0.01020876049092232, 0.010208811136859284, 0.010208841220645755, 0.010208728096931748, 0.01020869184012167, 0.010208767563525678, 0.010208765369772265, 0.010208751238807334, 0.010208833575837397, 0.010208773995238554, 0.010208802263573475, 0.010208675288905962, 0.010208723825276177, 0.01020873511853776, 0.010208694484783242, 0.010208659777117978, 0.010208660701071551, 0.010208686737403388, 0.01020875280707196, 0.010208835383562579, 0.010208858499263644, 0.010208844291296947, 0.010208773911316903, 0.010208888946684029, 0.01020898198269222, 0.010208886740840558, 0.01020877263729656, 0.010208837648432592, 0.010208909367876981, 0.010208954960748367, 0.01020886120799355, 0.010208836103800129, 0.01020878458230619, 0.01020874601125148, 0.010208672183903372, 0.010204582424349561, 0.010004408704626594, 0.00010273976486178017</t>
+  </si>
+  <si>
+    <t>1.0020887715078712, 0.9994494382031808, 1.0006675163247218, 0.9994378761729958, 0.9978535086964186, 0.9929892387278753, 1.0024749425227915, 1.0153867369814762, 0.9998986500254147, 0.9816089049185496, 1.0013155295601868, 1.0227662566586395, 1.02114879627559, 0.9995593291656061, 0.979893536331256, 1.0113892748882645, 1.0038906512073495, 1.0000254561197144, 1.0010197344771443, 1.0005104571983112, 0.9993350289815054, 1.0011313109734314, 0.997751572789269, 0.9911160909818145, 1.0010359396307962, 1.0038972620312077, 1.0028692831276325, 0.998300416084956, 0.9853974446520744, 0.9588934283385141, 0.9510829571179554, 0.9210848798989617, 0.8282903334880816, 0.6721763302764031, 0.4390280199314831, 0.19293183527171498, 0.04445109115209144, 0.011981197256202912, 0.010248261450368988, 0.010209527429552763, 0.010208674082196034, 0.010208644758785735, 0.010208619174681442, 0.010208649358811852, 0.01020867645282568, 0.010208647146775057, 0.010208607362122207, 0.010208647882101816, 0.010208688703671285, 0.010208649252390532, 0.010208653570259974, 0.010208701545329593, 0.010208758276914405, 0.010208715975611758, 0.010208681978961624, 0.010208641309332186, 0.010208713009315041, 0.010208810584421532, 0.01020871001854366, 0.010208710655460116, 0.01020874365558641, 0.010208764282953272, 0.01020873001367744, 0.010208658261921466, 0.010208691660341399, 0.010208657023334074, 0.010208635466057171, 0.010208629502630177, 0.01020869429678656, 0.010208759293016713, 0.010208753722903674, 0.010208710393899216, 0.010208652959462758, 0.010208672866946622, 0.010208777534899275, 0.010208700840925466, 0.010208643648995404, 0.01020864073861082, 0.010208645721424782, 0.010208641956904995, 0.010208738820646997, 0.010208673008800623, 0.010208640617489573, 0.010208714435307985, 0.01020874419243255, 0.010208680089220013, 0.010208681777126258, 0.010208747727781001, 0.010208681454606258, 0.010208681766741733, 0.010208662845427695, 0.010208674324776382, 0.010208642384382531, 0.010208679700683471, 0.010208718562538664, 0.0102087209874519, 0.010208631867475114, 0.010204510802096958, 0.010004343851622504, 9.953825925258908e-05</t>
+  </si>
+  <si>
+    <t>0.9978560904283802, 1.0009066363909793, 0.9994439032489575, 1.0010758521736387, 1.0009890554051513, 1.0050594770606607, 1.0012884025190496, 0.9996973178171873, 1.0012091622043888, 0.9971779970153034, 0.9986664633296153, 1.0012619633365203, 0.9965323373158159, 1.001065264596174, 1.0051853453228712, 1.0012137778644679, 1.0003060172339162, 1.0016291984682024, 0.9986387776547184, 1.0039997661866926, 1.002481694180564, 0.9977689762193391, 0.9984728930724209, 0.9924129539476886, 0.9935036899824401, 0.9976697159089495, 1.0025158541792203, 0.9853393529158442, 0.9583147010406383, 0.9458889813572371, 0.90624771355022, 0.8130726430341918, 0.6497830066809815, 0.41176620563224975, 0.17025006947594307, 0.036338814142817685, 0.011323208260751547, 0.010232836781247355, 0.01020924502409146, 0.010208677484297855, 0.010208740060851325, 0.010208804408557745, 0.010208814203578834, 0.010208772995601892, 0.010208750884325296, 0.010208685134507034, 0.010208670361279797, 0.010208675905147355, 0.010208724360888568, 0.010208779640192822, 0.010208671377387478, 0.010208721603456988, 0.010208823576918548, 0.010208800130146448, 0.010208723711391013, 0.010208704446175155, 0.01020876355262045, 0.010208814583391346, 0.01020880505712394, 0.010208762839949098, 0.010208796509001129, 0.010208800231956541, 0.010208824891250816, 0.010208807092618373, 0.010208829426273465, 0.010208784872196602, 0.010208721563410888, 0.010208710841100853, 0.010208728895253911, 0.010208802665345107, 0.010208832432396162, 0.010208772517436323, 0.01020872050095268, 0.010208799086171746, 0.010208783461368718, 0.0102087091628887, 0.010208813937874091, 0.010208865939490771, 0.010208824891222648, 0.01020878147532161, 0.010208805325284611, 0.010208809713684595, 0.010208788410854966, 0.010208775324034282, 0.010208755242701437, 0.010208821920283759, 0.010208791175425494, 0.010208758620153064, 0.010208837193095002, 0.010208805982939603, 0.010208810621464778, 0.01020873627259275, 0.010208687380606542, 0.0102088016633203, 0.010208831378709524, 0.010208842167165201, 0.010208700700509176, 0.010204526070800647, 0.010004363143820732, 0.00010049679263438122</t>
+  </si>
+  <si>
+    <t>0.9982567296192737, 1.0037920154462734, 0.9986815191475825, 0.9971169820937635, 1.0019790923541554, 1.0018802419258557, 0.9982027069528207, 0.9972214210983837, 0.9986721342603235, 1.0002642909612236, 0.9994996648526929, 1.0005303019593186, 0.9999768528888687, 0.9985853061636412, 0.9973407393677189, 1.001177228086897, 1.0062832321844901, 0.9951667099530446, 0.980384285172095, 1.0147462005304264, 1.0011514584701984, 0.9832669327640182, 0.9943480142120777, 0.9931509836265625, 0.9903445898688837, 0.9926704223575367, 0.9971608914749234, 0.9868385658192365, 0.9791940590173719, 0.9629851942012122, 0.9148654021903956, 0.8417652142367262, 0.7039320938642605, 0.5029580482454539, 0.24874995236187564, 0.06694667401557484, 0.014024102264264721, 0.010299322679228637, 0.010210557126867338, 0.010208561320373042, 0.010209134687368025, 0.010208658682309787, 0.010208585646850418, 0.010208355598854498, 0.010208511805455933, 0.010208505144118056, 0.010208442728190588, 0.010208412762068656, 0.010208686460331023, 0.010208858458081579, 0.010208433487840118, 0.010208523843124146, 0.010208447765163326, 0.010208392825700324, 0.0102086531596806, 0.010208632501680418, 0.01020835658042607, 0.010208634853925116, 0.01020843145370456, 0.010208621979978757, 0.010208470555683902, 0.010208399109665268, 0.010208749867055963, 0.010208695561624391, 0.010208534021579603, 0.010208850988939224, 0.010208767253451278, 0.010208669168062083, 0.010208500382369033, 0.010208729553338805, 0.010208449781992921, 0.010208447836095166, 0.010208296620385129, 0.010208599544865235, 0.010208597907224006, 0.010208527476034759, 0.010208490948361596, 0.010208246110609075, 0.010208655115894194, 0.01020846117811145, 0.010208456937678322, 0.01020855726610338, 0.010208735289344037, 0.010208541560219048, 0.010208330825345158, 0.010208742278683942, 0.010208277067477754, 0.010208654624329168, 0.010208700581213691, 0.010208494340210341, 0.010208438623980366, 0.010208710997868341, 0.010208456239953577, 0.010208536327698062, 0.010208482010819524, 0.010208686143612164, 0.010208516667018021, 0.010204464349361161, 0.010004364447794747, 0.00010062559023024003</t>
+  </si>
+  <si>
+    <t>1.0087165753056027, 0.9958217251403787, 0.9995043054949102, 1.0010334483965857, 0.9971141008385506, 0.9941994882684275, 1.00295251674524, 1.0159658314129272, 1.003214371641648, 0.9913907058877827, 0.9988513953918291, 1.003116530131659, 1.006091452650773, 1.0006022329224213, 1.000705195213178, 1.0017528263243372, 0.998235692426752, 0.9978206451726225, 0.9965549574036491, 0.9974222754144552, 0.9998089961404358, 0.9996589064770209, 1.000666988520779, 0.9990428167326357, 0.9990891057174501, 0.998167008855577, 0.9973111406293285, 0.9898663479225213, 0.9739152916202555, 0.945583000508487, 0.9017574326866737, 0.8205404627445069, 0.6568726742942633, 0.41486024789905807, 0.17223140508903276, 0.03641231830470016, 0.011336844934918794, 0.010233200060601896, 0.010209441461966213, 0.010208733843470921, 0.01020874102299866, 0.010208831481862272, 0.010208918921948834, 0.01020864749591058, 0.010208903068284229, 0.010208792080841227, 0.010208868989177288, 0.010208755644016928, 0.010208838259689136, 0.010208748265629319, 0.010208726924540043, 0.01020882429628101, 0.010208844305836807, 0.010208756148489016, 0.010208881693223747, 0.010208774929178542, 0.010208789453201176, 0.01020875325598808, 0.010208856348426961, 0.010208603964215742, 0.01020878107521337, 0.010208612044935143, 0.010208898540291587, 0.010208791649007858, 0.010208722680831046, 0.010208683639313824, 0.010208745128267757, 0.010208677033083625, 0.01020888064721628, 0.010208792184600718, 0.010208759706819129, 0.010208913416371897, 0.010208647501089175, 0.010208843961787343, 0.010208766722495271, 0.010208867634680055, 0.010208887697680198, 0.01020877213041952, 0.01020870159753182, 0.0102086993324203, 0.010208842206360496, 0.010208891542114774, 0.010208835853449208, 0.01020869737227239, 0.010208720096118735, 0.010208848946816272, 0.01020879828670507, 0.010208800992911141, 0.010208854817584864, 0.01020863781268279, 0.010208710787735978, 0.01020892641155213, 0.010208852072189356, 0.010208775875733272, 0.010208849018327852, 0.010208585524539569, 0.010208729700329825, 0.010204521511461609, 0.01000432256120437, 9.84523075255967e-05</t>
+  </si>
+  <si>
+    <t>1.0015115211820864, 0.9996312354980522, 1.0009008760692952, 1.000698223870214, 0.9988283480228953, 0.9934248765191831, 1.0029343694498583, 1.0078576040650291, 0.9997321027526905, 0.9890432323455899, 1.0006473752201916, 1.012758181043251, 1.0099636321526024, 1.0001225369601627, 0.9929946571512533, 0.9983528106444589, 0.9995832976449514, 1.0003543699193314, 1.0021655675068046, 0.9984293205634084, 0.996002097058871, 0.9963480152039336, 0.9977401862571619, 0.9937428033772489, 0.9957943179954261, 0.9955994513998643, 0.9943363853415026, 0.9971406743996096, 0.9746170744175829, 0.9464019022797577, 0.91294078578079, 0.828339924710805, 0.6684358433903185, 0.42460461808201155, 0.17471609500010032, 0.03658000582003056, 0.011324656073250906, 0.010232750543394092, 0.010209138472683068, 0.010208660236706376, 0.01020864476063783, 0.010208699414319273, 0.010208761275819274, 0.010208693324298487, 0.010208641050624346, 0.010208706445748738, 0.01020874747810841, 0.010208783652228347, 0.010208764334075117, 0.010208707654855341, 0.010208669736501004, 0.0102086290977704, 0.010208657579999062, 0.010208707022887774, 0.010208682183474576, 0.010208679528605005, 0.01020871810001323, 0.010208721113475335, 0.010208696650739943, 0.01020867589219652, 0.010208688102722012, 0.010208735289666065, 0.010208728455486807, 0.010208681098382057, 0.010208670734124244, 0.010208659498567002, 0.010208694220041128, 0.010208672648410534, 0.010208692991689167, 0.010208675741574089, 0.01020867959758742, 0.010208695958142189, 0.010208683836536564, 0.010208679221472035, 0.010208634499895302, 0.010208679163178424, 0.010208697343252044, 0.01020868548428448, 0.010208671088220078, 0.010208663293839685, 0.010208656871660664, 0.010208673791007164, 0.010208676331049917, 0.010208660137914672, 0.01020865672299175, 0.010208632068967534, 0.01020862475627875, 0.010208639466164479, 0.01020862943885382, 0.010208683927083346, 0.010208723497133863, 0.010208710659802488, 0.010208711794432555, 0.010208713250861359, 0.010208711120079041, 0.010208675436975569, 0.010208606924876342, 0.010204514817465545, 0.010004355066201853, 0.00010010041660589078</t>
+  </si>
+  <si>
+    <t>0.9928903885710328, 1.003929364762849, 0.9989742215882305, 1.00329030564792, 0.9991538167043097, 0.9936185601372335, 1.0022823134080072, 0.997195197976134, 0.9988128966334087, 0.9986931024459753, 0.9995556084941327, 1.005141104461001, 1.0006137548516962, 0.9989314722926881, 0.9980388046756556, 1.0003060073874517, 1.0000078944928599, 1.0011056282252584, 1.0055743992743424, 0.9950582535371313, 0.9963477114404345, 0.9989168429368732, 1.0061367416163096, 1.0097058086117652, 0.9987792824516697, 0.984240286959833, 0.9918311293200668, 0.9845084725590918, 0.9643543518302485, 0.9349135859004903, 0.8748685556529822, 0.7706919946386451, 0.598857154166914, 0.3578366058442727, 0.1258713301058877, 0.02307023653989613, 0.010606406743396898, 0.010217306474120143, 0.010209005816756652, 0.010208754056910739, 0.010208643282296904, 0.010208759829040659, 0.010208968123346571, 0.01020853461216929, 0.010209083056581638, 0.010208826387119228, 0.010208504296463557, 0.010208630117180529, 0.010208889206315207, 0.010208852273988675, 0.010208707083400907, 0.0102086676949269, 0.010209082539699712, 0.010208722343907895, 0.010208721241649954, 0.010208778469079808, 0.010208741384270146, 0.010208876466860377, 0.010208613801711938, 0.010208708586069759, 0.010208694740284125, 0.010208614661523186, 0.010209092691979919, 0.010208595189971593, 0.010208628459861396, 0.010208943533544733, 0.010208803209578567, 0.010208990510622388, 0.010208853675519186, 0.010208818130068733, 0.010208706061322896, 0.010208698440393411, 0.010208940736181116, 0.01020885662760102, 0.010208658196187317, 0.010209000857371064, 0.010208907113687769, 0.01020888615859694, 0.010208732518540889, 0.01020858932067716, 0.01020884676585176, 0.010208820481453528, 0.01020874508186109, 0.010208840998527277, 0.010208607341193984, 0.010209067951743207, 0.010208328760507042, 0.010209066126416897, 0.010208730802682099, 0.010208826595877879, 0.010208661108173957, 0.010208891814718924, 0.01020877481002898, 0.010208788636611562, 0.010208957918003412, 0.010208779269624354, 0.010208636097983715, 0.010204481327111747, 0.010004417000229056, 0.0001032617548476366</t>
+  </si>
+  <si>
+    <t>1.002842109333512, 0.9967292051284505, 1.0007963161283941, 1.0021104774892484, 0.9970025752948656, 0.9956775777572601, 1.002349427343611, 1.0126303056534205, 1.0042283446063305, 0.998868761920444, 1.001165812205579, 1.0087680518017432, 1.0017856924925956, 0.991807168537722, 1.0017965487461133, 1.0091060206665328, 1.0001819955406437, 0.9953807559440649, 1.0032326386182526, 1.0023301792525183, 0.9961970496139259, 0.9959303224478814, 0.9990402091614838, 1.0010674788886993, 0.9993408142958882, 0.9999208471669973, 0.9915805985422389, 0.9826528591786889, 0.9678429382964786, 0.9364025767211202, 0.8763821234202517, 0.7671052428829432, 0.5799208673760508, 0.32655722824756844, 0.11692434274118657, 0.02338228830121751, 0.010635577784877859, 0.010217873770465574, 0.010209033397535537, 0.010208882104423452, 0.010208938700162144, 0.010208823249614805, 0.010208921730780654, 0.010208808099930685, 0.010208938105269497, 0.01020861151560485, 0.010208843474011535, 0.010208853629317305, 0.010208948438868427, 0.010208821382287188, 0.01020869812123742, 0.010208777135362833, 0.010208820682741012, 0.010208737646773793, 0.010208727811782642, 0.010208880664253675, 0.010209085587171585, 0.010208751334704233, 0.010208780264027209, 0.010208910486024281, 0.010208839550463264, 0.010208872120333718, 0.010208748585634341, 0.010208882000144042, 0.010208899913990061, 0.010208645216053554, 0.010208826967183194, 0.010208781783257327, 0.010208846716159964, 0.010208770887775725, 0.010208850285161459, 0.010208831005716994, 0.01020879022399907, 0.010209061191054447, 0.01020871823713044, 0.010208857644410334, 0.010208967665374836, 0.01020867424957767, 0.010208810702696974, 0.010208798952577675, 0.010208926518397738, 0.010208753591379346, 0.010208884299412203, 0.010208846015007208, 0.010208869140524924, 0.010208780221867813, 0.010208752604753075, 0.010208913556469641, 0.01020858110544588, 0.010208734258015101, 0.01020879802874039, 0.010208856079489778, 0.010208799084250517, 0.01020879655302348, 0.010208895061568631, 0.010208878225360894, 0.010208726403839482, 0.01020459670494869, 0.01000435103733188, 9.981345648984605e-05</t>
+  </si>
+  <si>
+    <t>1.007790458490653, 0.999257842959492, 0.9976001415237526, 0.9972405434170285, 1.0016928594187942, 1.0041208219519708, 0.9889774645610901, 1.0040731882615477, 0.9974696592581463, 0.9933907040269848, 0.9981810682095171, 1.003749412127954, 1.0092992100274811, 0.999138030101964, 0.9827059933146455, 0.99607281845093, 1.0011504232980324, 1.005005232917549, 0.9980699706142617, 0.9949689211349464, 0.989410050467826, 0.9941625281086064, 0.9978772816741729, 0.9978504436153989, 0.9965565264347311, 0.9931807780401106, 0.9875676640505449, 0.9777210088876912, 0.9617655617687629, 0.9340901466916458, 0.8854120027458242, 0.753959442689343, 0.5531713049570429, 0.2991032706403437, 0.09153502392888782, 0.017990196345405524, 0.010428375320790354, 0.01021322952682642, 0.010208847692743241, 0.010208779720908778, 0.010208557449382096, 0.010208673625632277, 0.010208752050201454, 0.010208745119867997, 0.01020880382392617, 0.010208579940954966, 0.010208769252245068, 0.010208463272556732, 0.010208656393326737, 0.010208737264881957, 0.010208539599854825, 0.010208643521659408, 0.010208584495545375, 0.01020866944641725, 0.010208757908465038, 0.010208564340950979, 0.010208768072751754, 0.010208489320726023, 0.010208806497811296, 0.010208754486081186, 0.01020871207675355, 0.010208604155501264, 0.010208659849377178, 0.010208592188771879, 0.010208756698973899, 0.010208698524782909, 0.01020878901108122, 0.010208696892251826, 0.010208579131860653, 0.010208551590433561, 0.010208567485021823, 0.010208740282433208, 0.01020849550256837, 0.010208583577241248, 0.01020873999630641, 0.010208676305523813, 0.010208668852316322, 0.010208754672927301, 0.010208754022052449, 0.010208571737179107, 0.010208657273393592, 0.010208791099063261, 0.010208640466593772, 0.010208501514399759, 0.010208686053441286, 0.010208680858848232, 0.010208607209836004, 0.010208647927533024, 0.010208660102381379, 0.010208756055231666, 0.010208785601807746, 0.010208767588164783, 0.010208670263702679, 0.010208794713075831, 0.010208764839756813, 0.010208722990921211, 0.01020859925147272, 0.010204584796234548, 0.010004316215203582, 9.806734151745138e-05</t>
+  </si>
+  <si>
+    <t>0.9955950921705896, 1.0172216142586654, 0.9845722513189786, 1.0067030425586152, 1.011109652637544, 1.0212029788501495, 1.0025174408093545, 0.9908860475174682, 0.9947705687259226, 0.9971659523388959, 0.9999649262206345, 1.0009093848335375, 1.0000712082782162, 0.9997455232709265, 0.9997938156950523, 0.9976190955135159, 0.992010380273257, 0.9978421140933823, 1.000828481177056, 1.00404205793133, 1.00106659921834, 1.0023411377881712, 0.9999752802195468, 0.9952684614190208, 1.003454816648106, 0.9971487042237583, 0.9896733049730791, 0.9846585472611676, 0.9636278767487872, 0.9334061662734872, 0.880126395594184, 0.7792511475059181, 0.5935282616924612, 0.3450212390997868, 0.12119635118439964, 0.02376360001127212, 0.010665211007843622, 0.010218434071265981, 0.010209026041545733, 0.010208957519569253, 0.010208837873327763, 0.010209022940701662, 0.010209002023999495, 0.010209052387714145, 0.010208828447222752, 0.010209191795611852, 0.010209097577074742, 0.010208935955502523, 0.010208900734091673, 0.010208987448901129, 0.010208856395773172, 0.010209086093609217, 0.010208721248284936, 0.010209054237783857, 0.010209128610672236, 0.010209007001585103, 0.010208893568944848, 0.010209085172731582, 0.010208673676842845, 0.010209025560996397, 0.010209078532319909, 0.010208879562634394, 0.010208785315479507, 0.010208556421219572, 0.010209106575317723, 0.010209105217926007, 0.010208812960879811, 0.010208777538828578, 0.010208756906655554, 0.010208837140694278, 0.010209095325640172, 0.010209211304411379, 0.010208906838026974, 0.010208941450969428, 0.010208701096500123, 0.01020903490958848, 0.010208924769240211, 0.010208924238339271, 0.010208777234912267, 0.010209047969369967, 0.010208916330074813, 0.010209037974823965, 0.01020872907069821, 0.010208692843328433, 0.01020893151151253, 0.010208916487703907, 0.010208854728012662, 0.010209093046178926, 0.01020905623985085, 0.010208849679973962, 0.010208908846309584, 0.01020902499627597, 0.010209058732814138, 0.010208793284816949, 0.010209070356260874, 0.01020898974576668, 0.010209071693161719, 0.010204531193037334, 0.0100043777473546, 0.0001012289320968156</t>
+  </si>
+  <si>
+    <t>0.9926471734603636, 0.9977053460255849, 1.0067366312498092, 0.9989573957437722, 1.0008036098735458, 1.0077384719251634, 0.9964989098641642, 1.0026253399014466, 0.9960279338455564, 0.9833683376258913, 0.9999774326984553, 1.0170258860522468, 1.0077812888083817, 1.003479218697743, 1.0022283232128089, 1.0015618239428623, 1.0031604531027742, 1.0011543037663782, 1.000425817359931, 1.0017146571756113, 1.003739240346548, 1.005401442432429, 1.0039018154298536, 0.9992157253906974, 0.9967206938641268, 0.9878424202806118, 0.9905639685600761, 0.9848534819758183, 0.9532658400990747, 0.9074882806729975, 0.8322809521352644, 0.7041888941036999, 0.48773761340827215, 0.23563633644574047, 0.060470307760233925, 0.013544708620868404, 0.0102882281173507, 0.010210368755327286, 0.010208775500948444, 0.010208716833669808, 0.010208731066348684, 0.0102087907698902, 0.01020871672088642, 0.01020872465165273, 0.010208739376671825, 0.010208747868691252, 0.010208749578604126, 0.010208727064772794, 0.010208750068365469, 0.010208750758379573, 0.010208764653180175, 0.010208696103650558, 0.010208747878871303, 0.01020877329434558, 0.010208708656853395, 0.010208744984422303, 0.010208753632614056, 0.01020876748511275, 0.010208750965230787, 0.010208722471797379, 0.010208728395290842, 0.010208770646180929, 0.010208686528230775, 0.010208778471607923, 0.010208739640751065, 0.010208695699879112, 0.010208783522019746, 0.010208709461459905, 0.01020871566535653, 0.010208735147034067, 0.010208783815660018, 0.010208705561154274, 0.010208743531103584, 0.010208772551382134, 0.010208704915987797, 0.010208745913556711, 0.010208737303702727, 0.010208746676845779, 0.010208736899037603, 0.01020874801096971, 0.01020874085234573, 0.01020875413751794, 0.010208749273089764, 0.010208719693336882, 0.01020871669883829, 0.01020877850491891, 0.01020874554753187, 0.01020870121530712, 0.010208758049409418, 0.010208727915713183, 0.010208745216907981, 0.010208742080979128, 0.010208721195917283, 0.010208780821149215, 0.010208686009085817, 0.010208751582731929, 0.010208665604837365, 0.010204527106878738, 0.010004343456665324, 9.950167544095068e-05</t>
+  </si>
+  <si>
+    <t>0.9970308779350145, 1.0015999356557834, 0.9989901051354299, 0.9989577834499573, 1.0047841317719926, 1.0138989463868806, 0.9968873453110867, 0.9801509103321926, 0.9981963854473972, 1.0202284435944142, 0.9984217109785508, 0.9741515388263993, 0.9891123964199973, 0.9990844591494169, 1.0106673346029216, 1.003359467424139, 0.9953461026139662, 0.9820470478712124, 0.9902142735886457, 0.9997135574992274, 1.015289131299969, 1.000101385258051, 0.9942767903665178, 0.9916816314258984, 0.9944077086986615, 0.9948995178587363, 0.9901739407363594, 0.9872574884059175, 0.9816545830810741, 0.9457002673271023, 0.8892355447862584, 0.7880826866073972, 0.6198073229176492, 0.37841490173728287, 0.14682075821599452, 0.02963638855224151, 0.010923085183090335, 0.010224081792870501, 0.010209131219694518, 0.010208770142660282, 0.010208883572488472, 0.01020892744398744, 0.01020886128135688, 0.010208740838095226, 0.010208801231489536, 0.010208928652725682, 0.010208864752057975, 0.010208747314228425, 0.01020893769663839, 0.010208967870092426, 0.010208908012841538, 0.010208787060654395, 0.01020876059279182, 0.010208723408986271, 0.010208863496556949, 0.010208828579520858, 0.010208630851555645, 0.010208688169863533, 0.01020879154494366, 0.010208902000376835, 0.01020887746051672, 0.010208904034760533, 0.010208856240017892, 0.010208896169681037, 0.010208898864451666, 0.010208944463351426, 0.010208890332968812, 0.010208843926884167, 0.0102088070112033, 0.010208800087708948, 0.010208881174478828, 0.0102088583478958, 0.010208870406664286, 0.010208738185827099, 0.010208871104571447, 0.010208987104876775, 0.0102088619729551, 0.010208735058369875, 0.010208791321055932, 0.010208928274216779, 0.010208875069365126, 0.01020887213114462, 0.010208845299151212, 0.010208845592688386, 0.010208814023891583, 0.010208821589886572, 0.01020871448739649, 0.010208870953790328, 0.01020889955785337, 0.010208774244823136, 0.01020878718821319, 0.010208804883686706, 0.010208822925214916, 0.010208906089785263, 0.010208895479743501, 0.010208878672697203, 0.010208673447754469, 0.010204424224576944, 0.01000430834911821, 9.783395520533686e-05</t>
+  </si>
+  <si>
+    <t>0.9988714909637396, 1.0007375727677619, 0.9999867469017003, 1.0006361232026393, 1.0003541039767634, 1.0004686460054997, 1.0034070896254186, 1.0100734134990295, 0.999833344739223, 0.9938698411271863, 1.0000742521164965, 1.003365937254901, 1.0001917085888539, 0.9991712855259738, 0.9990001462161046, 1.0034795367880793, 1.0103927633784158, 0.9997858083737484, 0.9976443738606757, 0.9987084844353097, 0.9991671112628013, 0.9974001168553245, 0.99469395472183, 0.9940487611582455, 0.9885787378944934, 0.9852341145053801, 0.9802779535810422, 0.965136722592586, 0.9215558411279786, 0.8512584006890402, 0.709367365614334, 0.48475919081709024, 0.22446852468205758, 0.05287150159480255, 0.012490225057472373, 0.010259985888573986, 0.01020983505868549, 0.010208723101140363, 0.010208742015564725, 0.010208715083208936, 0.010208724585542464, 0.01020873893287619, 0.010208706117926878, 0.010208735180878843, 0.010208720818696648, 0.010208706124019543, 0.010208766590220176, 0.010208693365229197, 0.010208769022421125, 0.010208760559255549, 0.010208700981482032, 0.010208728653953331, 0.010208762472479887, 0.010208699838783067, 0.010208723025533351, 0.01020872084049047, 0.010208738236237634, 0.01020874324625783, 0.010208684077858039, 0.0102087734899453, 0.01020870660818053, 0.010208711965391663, 0.010208777396662991, 0.01020869394351162, 0.010208768886042791, 0.01020869259020577, 0.010208742144298576, 0.010208705831885007, 0.010208698371193163, 0.010208757967930592, 0.010208722047503031, 0.010208776644260934, 0.010208684832957395, 0.010208722349161434, 0.010208726927031236, 0.010208703253705523, 0.010208792352307684, 0.010208733790635692, 0.010208709871192679, 0.010208708922079061, 0.010208765953877708, 0.01020869602289891, 0.010208744216457673, 0.010208732840590278, 0.010208697478140474, 0.010208760131524918, 0.010208728614807776, 0.01020871121926454, 0.01020873563753478, 0.010208700360434734, 0.010208781418760278, 0.010208700026525035, 0.010208783812324783, 0.010208667635993273, 0.010208749116332402, 0.010208699442200412, 0.010208647342025536, 0.010204520612734403, 0.010004351899120875, 9.993458061229253e-05</t>
+  </si>
+  <si>
+    <t>0.9975081086427845, 0.9794634275656464, 0.9825730073641548, 0.9960823268838847, 1.011764637011148, 0.9957134116099469, 0.9981569692640537, 0.9989342251750783, 1.0007445294124229, 0.9945400430562493, 0.9983040729929903, 1.0025597763504233, 1.0007136087231745, 1.0034799567966237, 1.0090140699421124, 0.9977318577148359, 0.9940700549948794, 0.9971991601641563, 0.9990997614076006, 0.9974063282250151, 1.0000906538340584, 1.0011381471140646, 0.9976554080620555, 0.9957814788357338, 0.9917304217053681, 0.9895312475881795, 0.9758498330889412, 0.9509063198096539, 0.9219157976194784, 0.8639640132288728, 0.7103172101118996, 0.4961077253080978, 0.24025936016274343, 0.0618548948399765, 0.013284170477590687, 0.010279499480832784, 0.010210267505905658, 0.010208837598921985, 0.010208738275628824, 0.010208828012939824, 0.010208763653303103, 0.010208755016010852, 0.010208794382282393, 0.010208788834781048, 0.010208680545211148, 0.010208761555195702, 0.010208840026528509, 0.010208743402520159, 0.010208738986425358, 0.010208777021790537, 0.010208848302678276, 0.010208707274072745, 0.010208672053771907, 0.010208773000985803, 0.01020879931791603, 0.010208757051485702, 0.010208727070049248, 0.010208868420946022, 0.010208823148038873, 0.01020872795000286, 0.010208831502084856, 0.010208835783343674, 0.010208795449133497, 0.010208722205792583, 0.010208857440027053, 0.010208767233519536, 0.010208699239003659, 0.010208771144753761, 0.01020869285865859, 0.010208825861275837, 0.01020879681646363, 0.010208634984336948, 0.01020882430146067, 0.01020877009548691, 0.01020880012407297, 0.010208821821916845, 0.010208799165523544, 0.010208860045250621, 0.010208787309224865, 0.010208797020335275, 0.010208715509434974, 0.010208676065007711, 0.010208856254558175, 0.010208780080454404, 0.010208788898971123, 0.010208745975216264, 0.010208834071583519, 0.010208825716689303, 0.010208715786463226, 0.010208742955242885, 0.010208901949216307, 0.010208842751892312, 0.010208610707742424, 0.010208745134643293, 0.01020887310537775, 0.010208879467249207, 0.010208742219539043, 0.010204518536353027, 0.010004353507843435, 0.00010001792665909196</t>
+  </si>
+  <si>
+    <t>0.9985998706567899, 0.9996968884569644, 0.9945139777326969, 1.0025755003465544, 0.9996502074054099, 1.0001244747162963, 1.0013821801173102, 1.0020391336031118, 1.0013068080149718, 0.9999423503408845, 0.9983208254059308, 0.9998699496295288, 1.002546309601017, 0.998329989369996, 1.000510588377498, 0.999816573191456, 0.9991106737590228, 0.999709695301495, 0.9886690044743918, 0.9747150733657743, 0.9991145414038957, 1.0254040981185357, 1.0045490349808206, 0.993023841701982, 0.9854544503075426, 0.9949039632580445, 0.9830949932934626, 0.9682720648276689, 0.9213990586294726, 0.8463522944082106, 0.727429453002155, 0.5313286018706882, 0.2778764350988843, 0.09073707325726925, 0.01816860871017922, 0.010425117644186079, 0.010213322824174283, 0.010208882358984851, 0.010208817346589244, 0.010208690537583283, 0.010208811615819945, 0.010208735261137922, 0.010208654489506272, 0.010208824361557291, 0.010208690748405497, 0.010208720586649263, 0.010208900605653373, 0.010208721257605323, 0.010208627816210352, 0.010208775170910235, 0.010208568632137137, 0.010208867914540513, 0.010208910849903101, 0.010208766529742707, 0.010208752298378063, 0.010208646232661217, 0.010208850945078937, 0.010208780112654758, 0.010208707100202344, 0.010208799729300423, 0.010208749505068294, 0.010208754769326185, 0.010208763667540794, 0.010208833477534244, 0.010208609252664536, 0.010208626077743477, 0.010208804586012761, 0.010208641084181984, 0.010208711949170767, 0.01020871971842306, 0.010208602217369953, 0.01020893837952781, 0.010208845040613299, 0.010208542660761617, 0.010208679265913023, 0.010208755661529062, 0.010208796561121723, 0.010208785538059054, 0.010208778099114952, 0.010208799122018577, 0.010208831602919334, 0.010208770748665845, 0.010208689190402558, 0.010208840194295358, 0.010208675936617825, 0.010208749745917846, 0.01020886348029657, 0.010208701526380452, 0.010208631673169311, 0.010208765486820932, 0.010208693205439138, 0.01020894362543411, 0.010208653993680514, 0.010208610692690507, 0.010208622440457754, 0.010208817475876668, 0.010208781502563876, 0.010204530742864617, 0.01000496687943172, 0.00013097843277461873</t>
+  </si>
+  <si>
+    <t>0.9856325626565257, 0.9984860646313396, 1.0039852361403372, 0.9981469211424554, 1.0032617401357582, 1.0156509364928883, 0.9849368373855824, 1.0265258793536602, 1.012336362553367, 1.0034067109335876, 1.0049870438101132, 1.008666496676347, 0.9982571535260565, 0.9965824187632107, 1.0005056997555144, 1.0030166885352383, 1.0071453719181773, 1.0061122582665973, 1.001536521541912, 0.9942918106538512, 1.0004396755687057, 1.0024916577367673, 1.0008533918988518, 0.9989547042869998, 0.9959875112940908, 0.9887610622786998, 0.9736108969037726, 0.9654407099641885, 0.9368713460124228, 0.8751440458387651, 0.7664817784676878, 0.5852111621403175, 0.3324624433849879, 0.11069729486537491, 0.020874344610028277, 0.010525980362392242, 0.010215390688732782, 0.010208879177101214, 0.010208734205025114, 0.01020874474029848, 0.010208841684937022, 0.010208813173942314, 0.010208783576904868, 0.010208736494210635, 0.010208758553489263, 0.010208810486210095, 0.01020874805246142, 0.010208708188336616, 0.010208792551559676, 0.010208758460388268, 0.010208812889094298, 0.01020873594313511, 0.010208757434599713, 0.01020878542620038, 0.010208758996647516, 0.010208745626196373, 0.010208764713749144, 0.010208761324355048, 0.010208677177499108, 0.010208713651345683, 0.010208724221422341, 0.010208776463067695, 0.01020880040949786, 0.01020882466265644, 0.010208749328621501, 0.010208717127858024, 0.01020874489734594, 0.010208817592748514, 0.010208769431549247, 0.010208799972215852, 0.010208765922463066, 0.010208763104778517, 0.010208747883007468, 0.010208676963237628, 0.01020873328909868, 0.010208807104660269, 0.010208754648237837, 0.010208807865789486, 0.010208731233155851, 0.01020872055165038, 0.010208762900714277, 0.010208718792393781, 0.010208706537726393, 0.01020881477128706, 0.010208778617514519, 0.010208691685888, 0.010208800788023425, 0.01020877954104423, 0.01020879840122677, 0.010208827225558858, 0.01020873247105362, 0.010208766372053129, 0.010208738216319943, 0.010208710119789136, 0.010208775694729538, 0.010208737305953309, 0.010208624392392937, 0.010204470071243765, 0.010004294532464597, 9.708955937513946e-05</t>
+  </si>
+  <si>
+    <t>1.0036867562162515, 0.9979770761834295, 1.0007191447654533, 0.999326411924767, 1.0020447872902924, 1.0065344071048081, 1.0016324246331958, 0.9901211507421905, 0.9999791833044134, 1.0026412105077949, 0.9988668306409512, 0.9986043906269778, 1.0007119352584957, 1.000542909136221, 1.000066406132739, 0.9990587964953485, 0.9944156668535794, 0.9999091762125913, 1.0026972606541478, 1.002195235034208, 1.0056475323497005, 0.9992374142183744, 0.9842883081859413, 0.9946454313085833, 0.9963577053808959, 0.9856511113708426, 0.9695716535021139, 0.9388287220878803, 0.8981174273073252, 0.797538859058994, 0.6273906836906561, 0.384241906387719, 0.14301901995359256, 0.02716922714267945, 0.010786481843204857, 0.010220872207572939, 0.010209096689181706, 0.010208605898964756, 0.010208711809210553, 0.010208646435102222, 0.010208766286978324, 0.01020890848109852, 0.010208654139950422, 0.01020878276166639, 0.010208738680897271, 0.010208829998621018, 0.010208696572201225, 0.010208775394884698, 0.010208733214740265, 0.010208829359365103, 0.010208704013039955, 0.01020884426806971, 0.010208935579043935, 0.010208636294854384, 0.010208733713697741, 0.010208660095227402, 0.010208652688733673, 0.010208885467438193, 0.010208879473433817, 0.010208753752534744, 0.01020877304447445, 0.010208771803961564, 0.010208780628824379, 0.010208804280173104, 0.010208828421267692, 0.010208717061318016, 0.010208801381165802, 0.0102087122128005, 0.010208593034492112, 0.01020895141026064, 0.010208932166878444, 0.010208723785622141, 0.010208651143041618, 0.01020862819438176, 0.01020898512171929, 0.010208634979007085, 0.010208831585834365, 0.01020880506006677, 0.010208707489961506, 0.010208713362082877, 0.010208868011570468, 0.010208773054613748, 0.010208751914189351, 0.010208916539786115, 0.01020868334224414, 0.010208578653052846, 0.010208927993700162, 0.01020893881411851, 0.010208677367823162, 0.010208771954154277, 0.010208724535404713, 0.010208636194514056, 0.010208730747260593, 0.010208732489920356, 0.010208822223007744, 0.01020872827420787, 0.010208662663855738, 0.010204545719164706, 0.010004343134241048, 9.946639642378297e-05</t>
+  </si>
+  <si>
+    <t>1.0020359597769914, 0.9991482573433778, 0.9999866704788547, 0.9983529343378537, 1.0064816205162497, 1.0180786280113683, 0.9919902306647447, 0.9942379413804243, 1.0004630753270434, 0.9975983255651192, 0.9971116615262318, 1.0020711507489328, 1.0042270845478087, 1.0016917472622213, 0.9962115089091947, 1.0007299340104194, 0.9954517574255984, 0.9981098452566496, 1.0012839846381782, 0.9997933121849463, 1.0026209746091972, 1.0018457751475325, 0.9986756925982336, 0.9936110754169701, 0.9898936966233413, 0.9787401529932744, 0.9668782849079887, 0.943193055274301, 0.8970660836825514, 0.7884089223346077, 0.6142983960818887, 0.36379668188087255, 0.13305460827054677, 0.025781801570595952, 0.010735112193106288, 0.010219865675839792, 0.010208971100896419, 0.010208806439764203, 0.01020883564617393, 0.010208739892284355, 0.01020878116006344, 0.010208745012973273, 0.010208703635297555, 0.0102088357008084, 0.0102086545005257, 0.010208700091431962, 0.0102087109310858, 0.010208782239348345, 0.010208717003045476, 0.010208812571237857, 0.010208797515399172, 0.010208676629009617, 0.010208726296821435, 0.010208788825524834, 0.010208760931942541, 0.010208730826449224, 0.010208843290797895, 0.010208690726064389, 0.010208753028644102, 0.010208756303282805, 0.010208705316434297, 0.010208668535519015, 0.010208810323755098, 0.01020875788451123, 0.010208826399715275, 0.010208784922266494, 0.010208857611320028, 0.010208726429584099, 0.010208747151017864, 0.01020877617478077, 0.010208732372397434, 0.010208714525153513, 0.010208746807015601, 0.01020871509452397, 0.010208670450335793, 0.010208826970054685, 0.010208745220666823, 0.01020888018224208, 0.01020880219164303, 0.010208732140487153, 0.010208676429653507, 0.010208858661100172, 0.010208738174875645, 0.010208799124372404, 0.01020879356098465, 0.010208671677165855, 0.010208737892610398, 0.010208698062229734, 0.010208744047626376, 0.010208787854035714, 0.01020876868496107, 0.010208731583580037, 0.010208763849855605, 0.010208828533150648, 0.010208815438902445, 0.01020871049826507, 0.010208753710472243, 0.010204389406473866, 0.01000437636520843, 0.00010130375504984445</t>
+  </si>
+  <si>
+    <t>0.9949171357992607, 1.0025703885534893, 0.9986572205713017, 1.0013727148165708, 1.0023543946842708, 1.009386591404564, 1.0004353916874242, 0.9958423022239647, 1.002480987979813, 1.0041827949637603, 1.0006449180853392, 0.9967934164924371, 0.9975690017614227, 0.9987412217768519, 0.9979199610210641, 0.9918091655876387, 0.9851994502432104, 0.9993140630236695, 1.0185141837481615, 0.9935947673651792, 1.0016251026876677, 1.006304222598608, 0.9918370004783159, 0.9959211209184534, 0.9990372840874291, 0.9981763755883512, 0.9781472831171963, 0.9380079449518299, 0.8711941692695457, 0.7524433982574501, 0.5766796266064658, 0.3371113930632136, 0.11808152290248952, 0.022705819907675312, 0.010598722334986438, 0.010216896292374251, 0.010208991735749713, 0.010208783854880775, 0.010208731756419185, 0.010208807785464668, 0.010208603962063618, 0.010208775126151613, 0.010208728738496195, 0.01020873121234158, 0.010208738287444202, 0.010208862952760763, 0.010208695597481303, 0.010208661006208972, 0.01020877968777272, 0.010208797762518484, 0.01020878496252339, 0.010208719699193599, 0.010208759788663948, 0.010208620744855772, 0.010208832359222132, 0.010208663236667165, 0.01020879890709878, 0.010208717657356463, 0.010208816676124501, 0.01020874087452937, 0.010208714146309444, 0.010208777618719564, 0.010208759542915077, 0.010208794749304216, 0.01020868597554708, 0.010208826828508967, 0.010208727614450639, 0.010208694598622616, 0.010208705888315994, 0.010208794902286104, 0.010208758193248466, 0.010208820438033053, 0.01020867344475186, 0.010208713276970316, 0.010208736129589759, 0.010208799871331843, 0.010208700301201258, 0.010208833119395877, 0.010208750479022859, 0.010208759373090995, 0.010208662768157272, 0.01020877178947136, 0.010208828622477507, 0.010208772426229973, 0.010208757723507326, 0.010208787425225047, 0.010208813340781227, 0.010208621685111123, 0.010208771474753655, 0.010208817696642091, 0.01020876518094973, 0.010208792264318495, 0.010208827753934942, 0.010208792072205765, 0.010208662592366885, 0.010208783394365425, 0.01020862676419883, 0.010204513021949963, 0.010004359461768354, 0.00010032418876036079</t>
+  </si>
+  <si>
+    <t>0.971840522918074, 0.9857818708603702, 1.0324654222433194, 1.0282805872738128, 1.011929828185939, 1.0031467033324455, 0.980218076753206, 0.9839758992808845, 0.9939450180078859, 0.9982644862309842, 0.9920181460853653, 0.991807386918406, 0.9940625506312666, 0.9992449833406121, 1.0053145165078903, 1.0050303020504643, 1.0010127912300115, 0.9986597833758744, 1.0008570928699942, 0.9996409635149451, 0.9974984200697301, 0.997853611180886, 0.9970627295556812, 0.9892568001178514, 0.9932520005124116, 0.9938730821573264, 0.9825002094858395, 0.9555217264440541, 0.9167600115226144, 0.839259141456308, 0.7041365127014757, 0.4924274121718682, 0.24437648917640564, 0.06504928407390181, 0.013998820972018936, 0.01030039106970989, 0.01021058173075451, 0.01020881038042735, 0.010208675016255445, 0.010208758400784309, 0.010208691514251597, 0.01020870276312512, 0.0102087724354565, 0.010208717186459432, 0.010208722091623266, 0.010208741815481112, 0.010208663539899793, 0.010208767065123319, 0.010208740696878956, 0.010208715427987722, 0.01020871893335161, 0.010208741950861222, 0.010208656130914867, 0.010208768697147624, 0.010208735236083106, 0.01020868696439129, 0.010208743802245816, 0.010208707682339772, 0.010208724553291235, 0.010208715664642721, 0.010208758160379704, 0.010208673145190897, 0.010208781023963097, 0.0102086994807901, 0.01020874560294824, 0.01020870514471968, 0.010208699723686444, 0.01020874445699502, 0.010208781874705208, 0.010208639222009618, 0.010208800040960593, 0.010208646140031323, 0.010208762321531333, 0.010208750811710906, 0.010208693117774144, 0.010208721709125165, 0.010208699225052268, 0.010208798371631453, 0.010208705794966747, 0.010208669813457001, 0.010208788028927888, 0.010208689354147598, 0.010208761599366014, 0.010208707771204332, 0.01020875854556157, 0.010208647530303271, 0.01020878837646216, 0.010208718519904394, 0.010208697515050276, 0.010208765125947459, 0.010208689164972919, 0.010208688925874454, 0.010208786608458238, 0.010208686318657845, 0.010208737527067855, 0.010208721257174343, 0.010208633224264498, 0.010204398239237727, 0.01000465893924152, 0.00011555910984403079</t>
+  </si>
+  <si>
+    <t>1.0055363803440005, 0.9903557459548038, 1.003379843006912, 1.004565921652132, 0.9852653016947684, 0.996334949316584, 1.0123820168117128, 1.0037385992695165, 0.9967409039442063, 0.9995915667173993, 1.000520224233261, 1.0017087700669467, 1.0012554163935785, 1.0017788586204908, 1.0033848292384775, 1.0020791235579776, 0.9963832505741568, 0.9933471522805118, 0.9946425744079176, 0.9983595180549577, 1.0015856400365661, 0.9991403353082914, 0.998818324592538, 1.0011941921909897, 0.9910221520723849, 0.9806287434647908, 0.9612862151251574, 0.922323281008241, 0.8554171469588696, 0.7342390642166677, 0.5156299456087656, 0.2573139849340325, 0.07088469026186582, 0.014866983583598838, 0.01032547574281298, 0.01021071128235867, 0.010208737149168663, 0.010208636455703527, 0.010208200968868764, 0.010208565657864882, 0.010208837828042097, 0.010208554848843872, 0.010208705890091551, 0.010208594347218188, 0.010208624145293608, 0.010208167902256378, 0.010208605590286902, 0.010208130052386064, 0.01020826379646861, 0.01020825889758079, 0.010208471095072972, 0.01020847105574721, 0.010208709049650832, 0.010208579156295859, 0.010208486540660033, 0.0102082660833938, 0.0102081217765649, 0.010208597683418941, 0.010208456974298532, 0.010208918794486382, 0.010208537584246629, 0.010208367283207224, 0.010208491735033097, 0.010208731860036799, 0.010208320266242162, 0.010208422216429043, 0.010208806130110971, 0.010208977524969706, 0.010208772831738, 0.01020840569436911, 0.010208340010851816, 0.010208406438273834, 0.010208193921312747, 0.010208548277632358, 0.010208616357324306, 0.010208617997696654, 0.010208674481931938, 0.010208740654735293, 0.010208599948608087, 0.01020849071056112, 0.010208740074828634, 0.010208650709206643, 0.010208520335562486, 0.010208283642130717, 0.010208653441787157, 0.010208306718065765, 0.010208447682864137, 0.010208413866153655, 0.010208193532291398, 0.010208858272761977, 0.010208465139681554, 0.010208612157635754, 0.0102085554930704, 0.010208912539233882, 0.010208905190712199, 0.010208688222678884, 0.010208560656822682, 0.010204499856094007, 0.010004349567957687, 9.983805405776432e-05</t>
   </si>
   <si>
     <t>Minimo</t>
@@ -210,6 +210,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,13 +503,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="129" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -521,332 +527,332 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>60.221599749086131</v>
+        <v>62.05095405854604</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>100513</v>
+        <v>100398</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>60.426779664710921</v>
+        <v>62.39628543909685</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>100565</v>
+        <v>100438</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>60.459782440079167</v>
+        <v>62.828703262088517</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>100981</v>
+        <v>100808</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>60.582115624348901</v>
+        <v>62.875296723112179</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>100296</v>
+        <v>100476</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>61.028837731988943</v>
+        <v>63.33021884328361</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>100590</v>
+        <v>100442</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>61.060892498313592</v>
+        <v>63.867189891342861</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>100856</v>
+        <v>100527</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>61.06875656072539</v>
+        <v>64.027071260217113</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
-        <v>100412</v>
+        <v>100425</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>61.335811207946698</v>
+        <v>64.315893143459789</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9">
-        <v>101010</v>
+        <v>100578</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>61.473065029932918</v>
+        <v>64.391325898902863</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
-        <v>100974</v>
+        <v>100561</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>61.537412034616239</v>
+        <v>64.408929768609838</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>100246</v>
+        <v>100426</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>61.602154966859032</v>
+        <v>64.627483173884272</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
-        <v>100555</v>
+        <v>100413</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>61.604463302503689</v>
+        <v>64.756806262035809</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13">
-        <v>100506</v>
+        <v>100456</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>61.898429534538671</v>
+        <v>64.7845113707602</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14">
-        <v>100926</v>
+        <v>100532</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>61.974501439653608</v>
+        <v>64.802178479763981</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
-        <v>100371</v>
+        <v>100823</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>62.037666564511198</v>
+        <v>64.853264890019133</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16">
-        <v>100074</v>
+        <v>100738</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>62.131654352237042</v>
+        <v>64.998728537791351</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17">
-        <v>100419</v>
+        <v>100029</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>62.330898716003333</v>
+        <v>65.085314989440747</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18">
-        <v>100379</v>
+        <v>100371</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>62.342965023850788</v>
+        <v>65.459857211983078</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19">
-        <v>100969</v>
+        <v>100876</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>62.373807074033728</v>
+        <v>65.53343438157458</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20">
-        <v>100450</v>
+        <v>100237</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>62.471589214379463</v>
+        <v>65.645635827816619</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21">
-        <v>100872</v>
+        <v>100350</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>62.758526969230367</v>
+        <v>65.756752154918686</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22">
-        <v>100002</v>
+        <v>100805</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>62.980284056591273</v>
+        <v>66.434886577415909</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23">
-        <v>100850</v>
+        <v>100785</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>63.208285060246737</v>
+        <v>66.729721250337519</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24">
-        <v>100955</v>
+        <v>100140</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>63.225381724803192</v>
+        <v>66.730340617173752</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25">
-        <v>100926</v>
+        <v>100874</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>63.399717590740678</v>
+        <v>66.792206640623746</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26">
-        <v>100319</v>
+        <v>100869</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>63.62500831535764</v>
+        <v>66.873052072869243</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27">
-        <v>100349</v>
+        <v>100897</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>63.70032720544242</v>
+        <v>67.015583036386218</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28">
-        <v>100309</v>
+        <v>100345</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>63.771880395257988</v>
+        <v>67.36367350833082</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29">
-        <v>100737</v>
+        <v>100837</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>63.856214087100199</v>
+        <v>67.392678370710442</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30">
-        <v>100273</v>
+        <v>100767</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>64.524799376226881</v>
+        <v>67.49857311495434</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31">
-        <v>100364</v>
+        <v>100038</v>
       </c>
     </row>
   </sheetData>
@@ -881,19 +887,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>60.221599749086131</v>
+        <v>62.05095405854604</v>
       </c>
       <c r="B2">
-        <v>64.524799376226881</v>
+        <v>67.49857311495434</v>
       </c>
       <c r="C2">
-        <v>62.167120250377231</v>
+        <v>65.120885025248327</v>
       </c>
       <c r="D2">
-        <v>1.135632189411383</v>
+        <v>1.5127562885794119</v>
       </c>
       <c r="E2">
-        <v>100568.26666666671</v>
+        <v>100542.0333333333</v>
       </c>
     </row>
   </sheetData>
